--- a/APF/RA006/RA006_APF0302_密碼還原.xlsx
+++ b/APF/RA006/RA006_APF0302_密碼還原.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -45,22 +45,6 @@
   <si>
     <t>NO.</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DB型態及長度</t>
@@ -113,11 +97,553 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>對應Table Name</t>
+    <t>功能 Use Case</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>功能清單設定作業</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>效能需求</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資料處理量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡述/目標</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務需求目的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要參與者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支援性參與者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發事件Triggers</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事先條件Preconditions</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面示意圖</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Global 參數</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>初版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理流程說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用途分類</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>連結</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含SA功能描述、流程說明、其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="63"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>名稱</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大處理人數 -  350人
+concurrent數 150人 - 3秒以內</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>每月預計1000筆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 選取特定帳號密碼進行密碼還原。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授權功能使用者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用者由功能清單點選密碼還原時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">查詢帳號
+1.使用者於輸入查詢條件篩選欲選取的帳號
+2.系統依查詢條件顯示資料於grid
+密碼還原
+1.選取特定帳號密碼進行密碼還原，系統回應設定成功訊息
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事前檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.前畫面:首頁
+1.1 SESSION內容:
+1.2 成立條件:該使用者擁有此功能查詢權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事後檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前端檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0101MM1_Query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：按下『確認』鈕時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MM1_Grid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顯示用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後端檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除重填</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全選</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特殊說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>應用時機</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>參考資料說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通元件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0302MM1_Query</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0302MM1_Grid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工職稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_EMPLOYEE_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_EMPLOYEE_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_EMPLOYEE_POSITION</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Core_User </t>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0302MM1_Grid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>『APF0302MM1』Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0302MM1_Query</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0302MM1_Query</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0302MM1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0302MM1_Grid中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除APF0302MM1_Query畫面所有欄位</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將APF0302MM1_Grid內所有項目勾選</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將APF0302MM1_Grid內所有項目取消勾選</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>密碼還原</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0302_密碼還原 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼還原主頁面(查詢及還原)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>查詢按鈕提供開窗選取功能，例如:員工編號可自行輸入(模糊查詢)或點選查詢按鈕，跳出員工查詢視窗，於員工查詢視窗輸入條件(員工編號或員工姓名模糊查詢)後按下確認按鈕，下方顯示查詢結果，雙擊一筆員工查詢結果，帶回員工編號與員工姓名(圖二)。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 主檔已建立使用者帳號及該使用者角色有此功能權限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工職稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工職稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用者如忘記密碼時，可透此功能將密碼還原為初始預設值。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_DEPT_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0302MM1_Query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：該欄位輸入後</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面_APF0302MM1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0302MM1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>點選此按鈕後，系統回應提示確認訊息，訊息內容請參考APF訊息表 43。
+1. 若選擇是，則進行密碼還原並回應成功訊息，如失敗，則顯示還原失敗訊息，訊息內容請參考APF訊息表 2 及 5。
+2. 若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+  </si>
+  <si>
+    <t>共通性 CMD DB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通性 CMD DB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+  </si>
+  <si>
+    <t>emp_name</t>
+  </si>
+  <si>
+    <t>org_id</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_id</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html型態及長度</t>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
     <rPh sb="2" eb="3">
       <t>カタ</t>
     </rPh>
@@ -136,63 +662,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html代號</t>
+    <t>對應Table Name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>功能 Use Case</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>功能清單設定作業</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>效能需求</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>資料處理量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡述/目標</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務需求目的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要參與者</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支援性參與者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>觸發事件Triggers</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事先條件Preconditions</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Global 參數</t>
+    <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -200,489 +674,50 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1.0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理流程說明</t>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>其他</t>
+    <t>1. 輸入型態:string，最大長度限制:英文10(控制項控制)
+2. 如先輸入或按查詢鈕選擇員工編號 ，則員工姓名、部門代號、員工職稱 被自動帶出且該三欄位是disable</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>用途分類</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>連結</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含SA功能描述、流程說明、其他</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Sheet</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="63"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>名稱</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大處理人數 -  350人
-concurrent數 150人 - 3秒以內</t>
+    <t>1. 輸入型態:string，最大長度限制:英文5(控制項控制)
+2. 如先輸入或按查詢鈕選擇員工職稱，則員工編號、員工姓名、是disable，不可再輸入，</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>每月預計1000筆</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 選取特定帳號密碼進行密碼還原。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>授權功能使用者</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用者由功能清單點選密碼還原時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查詢帳號
-1.使用者於輸入查詢條件篩選欲選取的帳號
-2.系統依查詢條件顯示資料於grid
-密碼還原
-1.選取特定帳號密碼進行密碼還原，系統回應設定成功訊息
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事前檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:首頁
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能查詢權限</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事後檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前端檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0101MM1_Query
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：按下『確認』鈕時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101MM1_Grid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>顯示用。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>後端檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>應用時機</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>參考資料說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>共通元件</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0302MM1_Query</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0302MM1_Grid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工職稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(20)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_EMPLOYEE_ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_EMPLOYEE_NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_EMPLOYEE_POSITION</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEPT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Core_User </t>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMPLOYEE_NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0302MM1_Grid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>『APF0302MM1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0302MM1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0302MM1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0302MM1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0302MM1_Grid中</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除APF0302MM1_Query畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0302MM1_Grid內所有項目勾選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0302MM1_Grid內所有項目取消勾選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>密碼還原</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RA006_APF0302_密碼還原 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼還原主頁面(查詢及還原)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>查詢按鈕提供開窗選取功能，例如:員工編號可自行輸入(模糊查詢)或點選查詢按鈕，跳出員工查詢視窗，於員工查詢視窗輸入條件(員工編號或員工姓名模糊查詢)後按下確認按鈕，下方顯示查詢結果，雙擊一筆員工查詢結果，帶回員工編號與員工姓名(圖二)。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>待共通性使用者主檔完成後，補上</t>
-  </si>
-  <si>
-    <t>1. 主檔已建立使用者帳號及該使用者角色有此功能權限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工職稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，細部檢核項目，待共通性使用者主檔完成後，補上
-2. 如先輸入或按查詢鈕選擇員工編號 ，則員工姓名、部門代號、員工職稱 被自動帶出且該三欄位是disable，不可再輸入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，細部檢核項目，待共通性使用者主檔完成後，補上
-2. 如先輸入員工姓名，則員工編號、部門代號、員工職稱 被自動帶出且該三欄位是disable，不可再輸入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，細部檢核項目，待共通性使用者主檔完成後，補上
+    <t>1. 輸入型態:string，最大長度限制:英文10(控制項控制)
 2. 如先輸入或按查詢鈕選擇部門代號，則員工編號、員工姓名、是disable，不可再輸入</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>員工職稱</t>
+    <t>1. 輸入型態:string，最大長度限制:英文20(控制項控制)
+2. 如先輸入員工姓名，則員工編號、部門代號、員工職稱 被自動帶出且該三欄位是disable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emp_d</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1. 輸入型態:string，細部檢核項目，待共通性使用者主檔完成後，補上
-2. 如先輸入或按查詢鈕選擇員工職稱，則員工編號、員工姓名、是disable，不可再輸入，</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>部門代號</t>
+    <t>emp_d</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1. 使用者如忘記密碼時，可透此功能將密碼還原為初始預設值。</t>
+    <t>emp_d</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>txtINPUT_DEPT_ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0302MM1_Query
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：該欄位輸入後</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面_APF0302MM1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0302MM1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入之員工編號必須存在於 共通性 使用者 主檔資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之員工編號必須存在於 共通性 使用者 主檔資料表中，若不存在則出現錯誤訊息，訊息內容請參考APF訊息表APF_NO 9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>點選此按鈕後，系統回應提示確認訊息，訊息內容請參考APF訊息表 43。
-1. 若選擇是，則進行密碼還原並回應成功訊息，如失敗，則顯示還原失敗訊息，訊息內容請參考APF訊息表 2 及 5。
-2. 若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
+    <t>Core_Role</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -692,7 +727,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -862,13 +897,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -877,6 +905,40 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1193,7 +1255,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -1203,8 +1265,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1425,7 +1490,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,13 +1499,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1451,6 +1515,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1463,14 +1541,50 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1484,90 +1598,204 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1597,139 +1825,19 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般_12312" xfId="4"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="標準_Ⅱ011" xfId="1"/>
   </cellStyles>
@@ -2740,7 +2848,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>638175</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2837,7 +2945,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9458325" cy="447675"/>
+          <a:ext cx="9466984" cy="454602"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -4851,7 +4959,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4864,65 +4972,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="A1" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="35" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="94" t="s">
-        <v>114</v>
+      <c r="A4" s="99" t="s">
+        <v>99</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C4" s="39"/>
-      <c r="D4" s="91" t="s">
-        <v>36</v>
+      <c r="D4" s="90" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A5" s="95"/>
-      <c r="B5" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90" t="s">
-        <v>36</v>
+      <c r="A5" s="100"/>
+      <c r="B5" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="B6" s="89"/>
+      <c r="B6" s="88"/>
       <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickTop="1">
@@ -5051,13 +5159,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
@@ -5073,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D6" s="25">
         <v>41563</v>
@@ -5210,7 +5318,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="M1" sqref="M1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5223,17 +5331,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="99" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="M1" s="116" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M2" s="100"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M3" s="100"/>
+      <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -5249,266 +5357,259 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="86" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="116"/>
-    </row>
-    <row r="6" spans="1:13" s="86" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="117" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="119"/>
-    </row>
-    <row r="7" spans="1:13" s="86" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="105"/>
+    </row>
+    <row r="6" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="115"/>
+    </row>
+    <row r="7" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="106" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7" s="107"/>
       <c r="C7" s="107"/>
       <c r="D7" s="107"/>
       <c r="E7" s="107"/>
-      <c r="F7" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="105"/>
-    </row>
-    <row r="8" spans="1:13" s="87" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="98"/>
-    </row>
-    <row r="9" spans="1:13" s="86" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="105"/>
-    </row>
-    <row r="10" spans="1:13" s="87" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="97" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="98"/>
+      <c r="F7" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="112"/>
+    </row>
+    <row r="8" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
+    </row>
+    <row r="9" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
+    </row>
+    <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
     </row>
     <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="106" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B11" s="107"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
       <c r="E11" s="107"/>
-      <c r="F11" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
+      <c r="F11" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112"/>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A12" s="114" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
+      <c r="A12" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102"/>
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="106" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="107"/>
       <c r="E13" s="107"/>
-      <c r="F13" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="105"/>
+      <c r="F13" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="112"/>
     </row>
     <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A14" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="98"/>
-    </row>
-    <row r="15" spans="1:13" s="86" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="109"/>
-    </row>
-    <row r="16" spans="1:13" s="86" customFormat="1" ht="114" customHeight="1">
-      <c r="A16" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
-    </row>
-    <row r="17" spans="1:12" s="88" customFormat="1" ht="16.5">
-      <c r="A17" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
-    </row>
-    <row r="18" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="19" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="20" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="21" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="22" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="23" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="24" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="25" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="26" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="27" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="28" spans="1:12" s="88" customFormat="1" ht="14.25"/>
-    <row r="29" spans="1:12" s="88" customFormat="1" ht="14.25"/>
+      <c r="A14" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="102"/>
+    </row>
+    <row r="15" spans="1:13" s="85" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
+    </row>
+    <row r="16" spans="1:13" s="85" customFormat="1" ht="114" customHeight="1">
+      <c r="A16" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="123"/>
+    </row>
+    <row r="17" spans="1:12" s="87" customFormat="1" ht="16.5">
+      <c r="A17" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102"/>
+    </row>
+    <row r="18" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="19" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="20" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="21" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="22" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="23" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="24" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="25" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="26" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="27" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="28" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="29" spans="1:12" s="87" customFormat="1" ht="14.25"/>
     <row r="32" spans="1:12" ht="27" customHeight="1"/>
     <row r="43" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A43" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="98"/>
+      <c r="A43" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A43:L43"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
@@ -5525,6 +5626,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -5596,8 +5704,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5627,8 +5735,8 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="99" t="s">
-        <v>40</v>
+      <c r="K1" s="116" t="s">
+        <v>31</v>
       </c>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -5648,7 +5756,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="100"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
       <c r="A3" s="7"/>
@@ -5661,7 +5769,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="100"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1">
       <c r="A4" s="7"/>
@@ -5676,652 +5784,646 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="14.25">
-      <c r="A5" s="163" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="165"/>
+      <c r="A5" s="155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="157"/>
     </row>
     <row r="6" spans="1:17" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="166"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="A6" s="158"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="160"/>
     </row>
     <row r="7" spans="1:17" s="20" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="164"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
+      <c r="A9" s="165"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="167"/>
     </row>
     <row r="10" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="162" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
+      <c r="A10" s="154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="112"/>
     </row>
     <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
+      <c r="A11" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="162" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
+      <c r="A12" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="176" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
+      <c r="A13" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="162" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
+      <c r="A14" s="154" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
     </row>
     <row r="15" spans="1:17" s="43" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="159" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161"/>
+      <c r="A15" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="132"/>
     </row>
     <row r="16" spans="1:17" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="151" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="153"/>
+        <v>46</v>
+      </c>
+      <c r="C16" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A17" s="84">
+      <c r="A17" s="83">
         <v>1</v>
       </c>
-      <c r="B17" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="122" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
+      <c r="B17" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="169" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A18" s="84">
+      <c r="A18" s="83">
         <v>2</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
+        <v>73</v>
+      </c>
+      <c r="C18" s="169" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="74">
         <v>3</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="122" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
+        <v>106</v>
+      </c>
+      <c r="C19" s="169" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="76">
         <v>4</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="122" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
+        <v>105</v>
+      </c>
+      <c r="C20" s="169" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A21" s="120"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="129"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A22" s="159" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="160"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="161"/>
+      <c r="A22" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="132"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="153"/>
+        <v>46</v>
+      </c>
+      <c r="C23" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="135"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A24" s="45">
         <v>1</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
+        <v>71</v>
+      </c>
+      <c r="C24" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="45">
         <v>2</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
+        <v>75</v>
+      </c>
+      <c r="C25" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="45">
         <v>3</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
+        <v>72</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="45">
         <v>4</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
+        <v>74</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A28" s="177"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="154" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="A29" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="153"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A30" s="159" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
+      <c r="A30" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="132"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
+        <v>46</v>
+      </c>
+      <c r="C31" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="135"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A32" s="45">
         <v>1</v>
       </c>
-      <c r="B32" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="124"/>
+      <c r="B32" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="136" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="138"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A33" s="45">
         <v>2</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="124"/>
+        <v>103</v>
+      </c>
+      <c r="C33" s="139"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A34" s="45">
         <v>3</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="124"/>
+        <v>70</v>
+      </c>
+      <c r="C34" s="139"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A35" s="45">
         <v>4</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="124"/>
+        <v>104</v>
+      </c>
+      <c r="C35" s="142"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="144"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A36" s="120"/>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="129"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="127"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A37" s="159" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="181"/>
+      <c r="A37" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="130"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="153"/>
+        <v>46</v>
+      </c>
+      <c r="C38" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="135"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A39" s="45">
         <v>1</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="124"/>
+        <v>71</v>
+      </c>
+      <c r="C39" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="150"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A40" s="45">
         <v>2</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="124"/>
+        <v>75</v>
+      </c>
+      <c r="C40" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="150"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A41" s="45">
         <v>3</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="124"/>
+        <v>72</v>
+      </c>
+      <c r="C41" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="150"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A42" s="45">
         <v>4</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="124"/>
+        <v>74</v>
+      </c>
+      <c r="C42" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="150"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A43" s="120"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="129"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="127"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="154" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="155"/>
-      <c r="C44" s="155"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="155"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="155"/>
-      <c r="J44" s="156"/>
+      <c r="A44" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="176"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="176"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="176"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="177"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="147"/>
+      <c r="E45" s="170" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
       <c r="K45" s="43"/>
       <c r="L45" s="43"/>
     </row>
@@ -6330,296 +6432,296 @@
         <v>1</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
-      <c r="E46" s="145" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
+      <c r="E46" s="172" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
     </row>
     <row r="47" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A47" s="52"/>
-      <c r="B47" s="141"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="141"/>
-      <c r="J47" s="129"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="127"/>
     </row>
     <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A48" s="148" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="149"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="149"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="150"/>
+      <c r="A48" s="173" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="174"/>
+      <c r="E48" s="174"/>
+      <c r="F48" s="174"/>
+      <c r="G48" s="174"/>
+      <c r="H48" s="174"/>
+      <c r="I48" s="174"/>
+      <c r="J48" s="175"/>
     </row>
     <row r="49" spans="1:10" s="44" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="59">
         <v>1</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D49" s="58"/>
-      <c r="E49" s="126" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" s="127"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="127"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="128"/>
+      <c r="E49" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="179"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="179"/>
+      <c r="I49" s="179"/>
+      <c r="J49" s="180"/>
     </row>
     <row r="50" spans="1:10" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A50" s="56">
         <v>2</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D50" s="58"/>
-      <c r="E50" s="126" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="128"/>
+      <c r="E50" s="178" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="179"/>
+      <c r="G50" s="179"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="179"/>
+      <c r="J50" s="180"/>
     </row>
     <row r="51" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A51" s="59">
         <v>3</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C51" s="54" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D51" s="60"/>
-      <c r="E51" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="98"/>
+      <c r="E51" s="181" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="102"/>
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A52" s="61"/>
-      <c r="B52" s="141"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="141"/>
-      <c r="J52" s="129"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="127"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A53" s="142" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="143"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="143"/>
-      <c r="E53" s="143"/>
-      <c r="F53" s="143"/>
-      <c r="G53" s="143"/>
-      <c r="H53" s="143"/>
-      <c r="I53" s="143"/>
-      <c r="J53" s="144"/>
+      <c r="A53" s="182" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="183"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="183"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="184"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A54" s="45">
         <v>1</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
+      <c r="E54" s="172" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A55" s="45">
         <v>2</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D55" s="58"/>
-      <c r="E55" s="126" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" s="127"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="128"/>
+      <c r="E55" s="178" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="179"/>
+      <c r="G55" s="179"/>
+      <c r="H55" s="179"/>
+      <c r="I55" s="179"/>
+      <c r="J55" s="180"/>
     </row>
     <row r="56" spans="1:10" s="43" customFormat="1" ht="70.5" customHeight="1">
       <c r="A56" s="45">
         <v>3</v>
       </c>
       <c r="B56" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="58"/>
+      <c r="E56" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="126" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="128"/>
+      <c r="F56" s="179"/>
+      <c r="G56" s="179"/>
+      <c r="H56" s="179"/>
+      <c r="I56" s="179"/>
+      <c r="J56" s="180"/>
     </row>
     <row r="57" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A57" s="62"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="129"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="127"/>
     </row>
     <row r="58" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="136" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="137"/>
-      <c r="J58" s="138"/>
+      <c r="A58" s="191" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="192"/>
+      <c r="C58" s="192"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="193"/>
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="98"/>
+        <v>45</v>
+      </c>
+      <c r="B59" s="194" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="195"/>
+      <c r="D59" s="181"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="102"/>
     </row>
     <row r="60" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="133"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
-      <c r="J60" s="135"/>
+      <c r="A60" s="188"/>
+      <c r="B60" s="189"/>
+      <c r="C60" s="189"/>
+      <c r="D60" s="189"/>
+      <c r="E60" s="189"/>
+      <c r="F60" s="189"/>
+      <c r="G60" s="189"/>
+      <c r="H60" s="189"/>
+      <c r="I60" s="189"/>
+      <c r="J60" s="190"/>
     </row>
     <row r="61" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="59"/>
-      <c r="B61" s="120"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="131"/>
-      <c r="J61" s="132"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="181"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="186"/>
+      <c r="G61" s="186"/>
+      <c r="H61" s="186"/>
+      <c r="I61" s="186"/>
+      <c r="J61" s="187"/>
     </row>
     <row r="62" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="59"/>
-      <c r="B62" s="120"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
-      <c r="J62" s="132"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="181"/>
+      <c r="E62" s="186"/>
+      <c r="F62" s="186"/>
+      <c r="G62" s="186"/>
+      <c r="H62" s="186"/>
+      <c r="I62" s="186"/>
+      <c r="J62" s="187"/>
     </row>
     <row r="63" spans="1:10" s="43" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="133"/>
-      <c r="B63" s="134"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134"/>
-      <c r="G63" s="134"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134"/>
-      <c r="J63" s="135"/>
+      <c r="A63" s="188"/>
+      <c r="B63" s="189"/>
+      <c r="C63" s="189"/>
+      <c r="D63" s="189"/>
+      <c r="E63" s="189"/>
+      <c r="F63" s="189"/>
+      <c r="G63" s="189"/>
+      <c r="H63" s="189"/>
+      <c r="I63" s="189"/>
+      <c r="J63" s="190"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="59"/>
-      <c r="B64" s="120"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="131"/>
-      <c r="F64" s="131"/>
-      <c r="G64" s="131"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="131"/>
-      <c r="J64" s="132"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="181"/>
+      <c r="E64" s="186"/>
+      <c r="F64" s="186"/>
+      <c r="G64" s="186"/>
+      <c r="H64" s="186"/>
+      <c r="I64" s="186"/>
+      <c r="J64" s="187"/>
     </row>
     <row r="65" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A65" s="63" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B65" s="64"/>
       <c r="C65" s="65"/>
@@ -6636,48 +6738,69 @@
         <v>1</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="120"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="98"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="125"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="102"/>
     </row>
     <row r="67" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A67" s="59">
         <v>2</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="121"/>
-      <c r="D67" s="121"/>
-      <c r="E67" s="121"/>
-      <c r="F67" s="121"/>
-      <c r="G67" s="121"/>
-      <c r="H67" s="121"/>
-      <c r="I67" s="121"/>
-      <c r="J67" s="121"/>
+        <v>64</v>
+      </c>
+      <c r="C67" s="185"/>
+      <c r="D67" s="185"/>
+      <c r="E67" s="185"/>
+      <c r="F67" s="185"/>
+      <c r="G67" s="185"/>
+      <c r="H67" s="185"/>
+      <c r="I67" s="185"/>
+      <c r="J67" s="185"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
+  <mergeCells count="61">
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C39:J39"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A15:J15"/>
@@ -6694,41 +6817,17 @@
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6750,7 +6849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -6779,8 +6880,8 @@
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
-      <c r="L1" s="99" t="s">
-        <v>40</v>
+      <c r="L1" s="116" t="s">
+        <v>31</v>
       </c>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
@@ -6801,7 +6902,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
-      <c r="L2" s="100"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="1:18" s="41" customFormat="1" ht="12.75">
       <c r="A3" s="42"/>
@@ -6815,7 +6916,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="100"/>
+      <c r="L3" s="117"/>
     </row>
     <row r="4" spans="1:18" ht="6.75" customHeight="1">
       <c r="A4" s="27"/>
@@ -6853,18 +6954,18 @@
       <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A6" s="182" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="184"/>
+      <c r="A6" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="198"/>
       <c r="K6" s="78"/>
       <c r="L6" s="78"/>
       <c r="M6" s="78"/>
@@ -6874,31 +6975,31 @@
     </row>
     <row r="7" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A7" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="71" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>0</v>
@@ -6931,46 +7032,46 @@
       <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A10" s="182" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
+      <c r="A10" s="196" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
     </row>
     <row r="11" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A11" s="71" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="71" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="J11" s="71" t="s">
         <v>0</v>
@@ -6981,23 +7082,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="73" t="s">
-        <v>89</v>
-      </c>
       <c r="D12" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="74"/>
+        <v>123</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="91" t="s">
+        <v>122</v>
+      </c>
       <c r="H12" s="74"/>
       <c r="I12" s="76" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J12" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -7005,23 +7112,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="74"/>
+        <v>124</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="91" t="s">
+        <v>114</v>
+      </c>
       <c r="H13" s="74"/>
       <c r="I13" s="76" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -7029,23 +7142,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
+        <v>125</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>113</v>
+      </c>
       <c r="H14" s="73"/>
       <c r="I14" s="76" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J14" s="80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -7053,67 +7172,73 @@
         <v>4</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
+        <v>126</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="94" t="s">
+        <v>121</v>
+      </c>
       <c r="H15" s="73"/>
       <c r="I15" s="76" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J15" s="80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="70" customFormat="1" ht="16.5"/>
     <row r="17" spans="1:11" s="70" customFormat="1" ht="16.5">
-      <c r="A17" s="182" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="186"/>
+      <c r="A17" s="196" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="199"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
     </row>
     <row r="18" spans="1:11" s="70" customFormat="1" ht="16.5">
       <c r="A18" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="71" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="71" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="J18" s="71" t="s">
         <v>0</v>
@@ -7124,21 +7249,27 @@
         <v>1</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="74"/>
+      <c r="E19" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="201" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="91" t="s">
+        <v>113</v>
+      </c>
       <c r="H19" s="74"/>
       <c r="I19" s="76" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J19" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="70" customFormat="1" ht="16.5">
@@ -7146,73 +7277,79 @@
         <v>2</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D20" s="74"/>
-      <c r="E20" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>87</v>
+      <c r="E20" s="202" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="96" t="s">
+        <v>144</v>
       </c>
       <c r="H20" s="74"/>
       <c r="I20" s="76">
         <v>0</v>
       </c>
-      <c r="J20" s="83"/>
+      <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:11" s="70" customFormat="1" ht="16.5">
       <c r="A21" s="72">
         <v>3</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D21" s="74"/>
-      <c r="E21" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="77" t="s">
-        <v>95</v>
+      <c r="E21" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="96" t="s">
+        <v>83</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H21" s="74"/>
       <c r="I21" s="76">
         <v>0</v>
       </c>
-      <c r="J21" s="83"/>
+      <c r="J21" s="82"/>
     </row>
     <row r="22" spans="1:11" s="70" customFormat="1" ht="16.5">
       <c r="A22" s="76">
         <v>4</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="E22" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="201" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="91" t="s">
+        <v>114</v>
+      </c>
       <c r="H22" s="73"/>
       <c r="I22" s="76">
         <v>0</v>
       </c>
       <c r="J22" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:11">

--- a/APF/RA006/RA006_APF0302_密碼還原.xlsx
+++ b/APF/RA006/RA006_APF0302_密碼還原.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="畫面_APF0302MM1" sheetId="7" r:id="rId4"/>
-    <sheet name="欄位_APF0302MM1" sheetId="14" r:id="rId5"/>
+    <sheet name="IPO" sheetId="38" r:id="rId4"/>
+    <sheet name="畫面_APF0302MM1" sheetId="7" r:id="rId5"/>
+    <sheet name="欄位_APF0302MM1" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">畫面_APF0302MM1!$A$1:$J$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">欄位_APF0302MM1!$A$1:$J$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0302MM1!$A$1:$J$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0302MM1!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">畫面_APF0302MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">欄位_APF0302MM1!$1:$5</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">畫面_APF0302MM1!#REF!</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0302MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0302MM1!$1:$5</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0302MM1!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="149">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -718,6 +724,22 @@
   <si>
     <t>varchar(20)</t>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1529,6 +1551,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1541,13 +1565,61 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1556,27 +1628,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1586,66 +1637,192 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1672,167 +1849,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2861,7 +2883,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2869,6 +2891,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2902,7 +2935,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2910,6 +2943,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2921,6 +2965,1095 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1428750"/>
+          <a:ext cx="9906000" cy="512989"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32769" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s32769"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="群組 10"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0302 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>密碼還原</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131021</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3550,7 +4683,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4956,9 +6089,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4972,12 +6105,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="35" t="s">
@@ -5008,35 +6141,44 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B5" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="90" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="90" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="88" t="s">
+    <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1">
+      <c r="A6" s="102"/>
+      <c r="B6" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="89" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="B6" s="88"/>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickTop="1">
+    <row r="7" spans="1:4" ht="18" thickTop="1" thickBot="1">
+      <c r="B7" s="88"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="16.5" thickTop="1">
       <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4">
@@ -5046,28 +6188,32 @@
       <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="D11" s="34"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="D12" s="33"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D4:D5" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D4" location="畫面_APF0302MM1!A1" display="View"/>
-    <hyperlink ref="D5" location="欄位_APF0302MM1!A1" display="View"/>
+    <hyperlink ref="D5:D6" location="功能簡述!A1" display="View"/>
+    <hyperlink ref="D5" location="畫面_APF0302MM1!A1" display="View"/>
+    <hyperlink ref="D6" location="欄位_APF0302MM1!A1" display="View"/>
+    <hyperlink ref="D4" location="IPO!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5333,15 +6479,15 @@
       <c r="A1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="116" t="s">
+      <c r="M1" s="106" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M2" s="117"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M3" s="117"/>
+      <c r="M3" s="107"/>
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -5361,42 +6507,42 @@
       <c r="A5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="123"/>
     </row>
     <row r="6" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="115"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="110" t="s">
         <v>10</v>
       </c>
@@ -5408,31 +6554,31 @@
       <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="101" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
     </row>
     <row r="9" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="110" t="s">
         <v>12</v>
       </c>
@@ -5444,32 +6590,32 @@
       <c r="L9" s="112"/>
     </row>
     <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="101" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
     </row>
     <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="124" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="120" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="111"/>
@@ -5480,30 +6626,30 @@
       <c r="L11" s="112"/>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="102"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="124" t="s">
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="120" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="111"/>
@@ -5514,70 +6660,70 @@
       <c r="L13" s="112"/>
     </row>
     <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="101" t="s">
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="102"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="105"/>
     </row>
     <row r="15" spans="1:13" s="85" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="116"/>
     </row>
     <row r="16" spans="1:13" s="85" customFormat="1" ht="114" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="123"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="87" customFormat="1" ht="16.5">
       <c r="A17" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="102"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
     </row>
     <row r="18" spans="1:12" s="87" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="87" customFormat="1" ht="14.25"/>
@@ -5596,20 +6742,27 @@
       <c r="A43" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="102"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A43:L43"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
@@ -5626,13 +6779,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -5700,6 +6846,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="107"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="32769" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="32769" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
@@ -5735,7 +6945,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="106" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="18"/>
@@ -5756,7 +6966,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="117"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
       <c r="A3" s="7"/>
@@ -5769,7 +6979,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="117"/>
+      <c r="K3" s="107"/>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1">
       <c r="A4" s="7"/>
@@ -5784,71 +6994,71 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="14.25">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="157"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
     </row>
     <row r="6" spans="1:17" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="158"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="160"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="175"/>
     </row>
     <row r="7" spans="1:17" s="20" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="161"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="164"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A9" s="165"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="167"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="169" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="111"/>
@@ -5862,21 +7072,21 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="169" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="111"/>
@@ -5890,21 +7100,21 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="169" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="111"/>
@@ -5918,18 +7128,18 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="1:17" s="43" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="168"/>
     </row>
     <row r="16" spans="1:17" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="45" t="s">
@@ -5938,16 +7148,16 @@
       <c r="B16" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1">
       <c r="A17" s="83">
@@ -5956,16 +7166,16 @@
       <c r="B17" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="169" t="s">
+      <c r="C17" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="131"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A18" s="83">
@@ -5974,16 +7184,16 @@
       <c r="B18" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="169" t="s">
+      <c r="C18" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="131"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="74">
@@ -5992,16 +7202,16 @@
       <c r="B19" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="169" t="s">
+      <c r="C19" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="131"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="76">
@@ -6010,42 +7220,42 @@
       <c r="B20" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="169" t="s">
+      <c r="C20" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="150"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A21" s="125"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="127"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="45" t="s">
@@ -6054,16 +7264,16 @@
       <c r="B23" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="135"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A24" s="45">
@@ -6072,16 +7282,16 @@
       <c r="B24" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="45">
@@ -6090,16 +7300,16 @@
       <c r="B25" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="148" t="s">
+      <c r="C25" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="131"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="45">
@@ -6108,16 +7318,16 @@
       <c r="B26" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="131"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="45">
@@ -6126,56 +7336,56 @@
       <c r="B27" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="131"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="147"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="151" t="s">
+      <c r="A29" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="153"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="132"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="168"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
@@ -6184,16 +7394,16 @@
       <c r="B31" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="133" t="s">
+      <c r="C31" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="135"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="159"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A32" s="45">
@@ -6202,16 +7412,16 @@
       <c r="B32" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="189" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="138"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="191"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A33" s="45">
@@ -6220,14 +7430,14 @@
       <c r="B33" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="139"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="141"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="194"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A34" s="45">
@@ -6236,14 +7446,14 @@
       <c r="B34" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="139"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="141"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A35" s="45">
@@ -6252,40 +7462,40 @@
       <c r="B35" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="142"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="144"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A36" s="125"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="127"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="135"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="130"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="188"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -6294,16 +7504,16 @@
       <c r="B38" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="133" t="s">
+      <c r="C38" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="135"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="159"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A39" s="45">
@@ -6312,16 +7522,16 @@
       <c r="B39" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="148" t="s">
+      <c r="C39" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="150"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A40" s="45">
@@ -6330,16 +7540,16 @@
       <c r="B40" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="148" t="s">
+      <c r="C40" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="150"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="131"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A41" s="45">
@@ -6348,16 +7558,16 @@
       <c r="B41" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="148" t="s">
+      <c r="C41" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="150"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="131"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A42" s="45">
@@ -6366,42 +7576,42 @@
       <c r="B42" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="148" t="s">
+      <c r="C42" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="150"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="131"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A43" s="125"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="127"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="135"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="151" t="s">
+      <c r="A44" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="176"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="176"/>
-      <c r="J44" s="177"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="163"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="46" t="s">
@@ -6416,14 +7626,14 @@
       <c r="D45" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="170" t="s">
+      <c r="E45" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
       <c r="K45" s="43"/>
       <c r="L45" s="43"/>
     </row>
@@ -6436,40 +7646,40 @@
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
-      <c r="E46" s="172" t="s">
+      <c r="E46" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
     </row>
     <row r="47" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A47" s="52"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="127"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="135"/>
     </row>
     <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A48" s="173" t="s">
+      <c r="A48" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="174"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="174"/>
-      <c r="E48" s="174"/>
-      <c r="F48" s="174"/>
-      <c r="G48" s="174"/>
-      <c r="H48" s="174"/>
-      <c r="I48" s="174"/>
-      <c r="J48" s="175"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="156"/>
     </row>
     <row r="49" spans="1:10" s="44" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="59">
@@ -6482,14 +7692,14 @@
         <v>56</v>
       </c>
       <c r="D49" s="58"/>
-      <c r="E49" s="178" t="s">
+      <c r="E49" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="F49" s="179"/>
-      <c r="G49" s="179"/>
-      <c r="H49" s="179"/>
-      <c r="I49" s="179"/>
-      <c r="J49" s="180"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="134"/>
     </row>
     <row r="50" spans="1:10" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A50" s="56">
@@ -6502,14 +7712,14 @@
         <v>56</v>
       </c>
       <c r="D50" s="58"/>
-      <c r="E50" s="178" t="s">
+      <c r="E50" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="179"/>
-      <c r="G50" s="179"/>
-      <c r="H50" s="179"/>
-      <c r="I50" s="179"/>
-      <c r="J50" s="180"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="134"/>
     </row>
     <row r="51" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A51" s="59">
@@ -6522,40 +7732,40 @@
         <v>56</v>
       </c>
       <c r="D51" s="60"/>
-      <c r="E51" s="181" t="s">
+      <c r="E51" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="102"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A52" s="61"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="127"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="135"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="183"/>
-      <c r="C53" s="183"/>
-      <c r="D53" s="183"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="183"/>
-      <c r="H53" s="183"/>
-      <c r="I53" s="183"/>
-      <c r="J53" s="184"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="149"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="150"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A54" s="45">
@@ -6568,14 +7778,14 @@
         <v>56</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="172" t="s">
+      <c r="E54" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="118"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A55" s="45">
@@ -6588,14 +7798,14 @@
         <v>56</v>
       </c>
       <c r="D55" s="58"/>
-      <c r="E55" s="178" t="s">
+      <c r="E55" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="179"/>
-      <c r="G55" s="179"/>
-      <c r="H55" s="179"/>
-      <c r="I55" s="179"/>
-      <c r="J55" s="180"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="134"/>
     </row>
     <row r="56" spans="1:10" s="43" customFormat="1" ht="70.5" customHeight="1">
       <c r="A56" s="45">
@@ -6608,116 +7818,116 @@
         <v>56</v>
       </c>
       <c r="D56" s="58"/>
-      <c r="E56" s="178" t="s">
+      <c r="E56" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="179"/>
-      <c r="G56" s="179"/>
-      <c r="H56" s="179"/>
-      <c r="I56" s="179"/>
-      <c r="J56" s="180"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="134"/>
     </row>
     <row r="57" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A57" s="62"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="127"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="135"/>
     </row>
     <row r="58" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="191" t="s">
+      <c r="A58" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="192"/>
-      <c r="C58" s="192"/>
-      <c r="D58" s="192"/>
-      <c r="E58" s="192"/>
-      <c r="F58" s="192"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="192"/>
-      <c r="J58" s="193"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="144"/>
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="194" t="s">
+      <c r="B59" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="195"/>
-      <c r="D59" s="181"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="102"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="105"/>
     </row>
     <row r="60" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="188"/>
-      <c r="B60" s="189"/>
-      <c r="C60" s="189"/>
-      <c r="D60" s="189"/>
-      <c r="E60" s="189"/>
-      <c r="F60" s="189"/>
-      <c r="G60" s="189"/>
-      <c r="H60" s="189"/>
-      <c r="I60" s="189"/>
-      <c r="J60" s="190"/>
+      <c r="A60" s="139"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="141"/>
     </row>
     <row r="61" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="59"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="181"/>
-      <c r="E61" s="186"/>
-      <c r="F61" s="186"/>
-      <c r="G61" s="186"/>
-      <c r="H61" s="186"/>
-      <c r="I61" s="186"/>
-      <c r="J61" s="187"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="138"/>
     </row>
     <row r="62" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="59"/>
-      <c r="B62" s="125"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="181"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="186"/>
-      <c r="H62" s="186"/>
-      <c r="I62" s="186"/>
-      <c r="J62" s="187"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="138"/>
     </row>
     <row r="63" spans="1:10" s="43" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="188"/>
-      <c r="B63" s="189"/>
-      <c r="C63" s="189"/>
-      <c r="D63" s="189"/>
-      <c r="E63" s="189"/>
-      <c r="F63" s="189"/>
-      <c r="G63" s="189"/>
-      <c r="H63" s="189"/>
-      <c r="I63" s="189"/>
-      <c r="J63" s="190"/>
+      <c r="A63" s="139"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="141"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="59"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="181"/>
-      <c r="E64" s="186"/>
-      <c r="F64" s="186"/>
-      <c r="G64" s="186"/>
-      <c r="H64" s="186"/>
-      <c r="I64" s="186"/>
-      <c r="J64" s="187"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="138"/>
     </row>
     <row r="65" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A65" s="63" t="s">
@@ -6740,14 +7950,14 @@
       <c r="B66" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="125"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="101"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="101"/>
-      <c r="J66" s="102"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="105"/>
     </row>
     <row r="67" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A67" s="59">
@@ -6756,17 +7966,62 @@
       <c r="B67" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="185"/>
-      <c r="D67" s="185"/>
-      <c r="E67" s="185"/>
-      <c r="F67" s="185"/>
-      <c r="G67" s="185"/>
-      <c r="H67" s="185"/>
-      <c r="I67" s="185"/>
-      <c r="J67" s="185"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J35"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E54:J54"/>
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C20:J20"/>
@@ -6783,51 +8038,6 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:J61"/>
     <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6845,11 +8055,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E19" sqref="E19:G22"/>
     </sheetView>
   </sheetViews>
@@ -6880,7 +8090,7 @@
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
-      <c r="L1" s="116" t="s">
+      <c r="L1" s="106" t="s">
         <v>31</v>
       </c>
       <c r="M1" s="18"/>
@@ -6902,7 +8112,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
-      <c r="L2" s="117"/>
+      <c r="L2" s="107"/>
     </row>
     <row r="3" spans="1:18" s="41" customFormat="1" ht="12.75">
       <c r="A3" s="42"/>
@@ -6916,7 +8126,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="117"/>
+      <c r="L3" s="107"/>
     </row>
     <row r="4" spans="1:18" ht="6.75" customHeight="1">
       <c r="A4" s="27"/>
@@ -6954,18 +8164,18 @@
       <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="197"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="198"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
       <c r="K6" s="78"/>
       <c r="L6" s="78"/>
       <c r="M6" s="78"/>
@@ -7032,18 +8242,18 @@
       <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="199"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="202"/>
     </row>
     <row r="11" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A11" s="71" t="s">
@@ -7199,18 +8409,18 @@
     </row>
     <row r="16" spans="1:18" s="70" customFormat="1" ht="16.5"/>
     <row r="17" spans="1:11" s="70" customFormat="1" ht="16.5">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="198" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="199"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="202"/>
     </row>
     <row r="18" spans="1:11" s="70" customFormat="1" ht="16.5">
       <c r="A18" s="71" t="s">
@@ -7258,7 +8468,7 @@
       <c r="E19" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="201" t="s">
+      <c r="F19" s="97" t="s">
         <v>119</v>
       </c>
       <c r="G19" s="91" t="s">
@@ -7283,7 +8493,7 @@
         <v>76</v>
       </c>
       <c r="D20" s="74"/>
-      <c r="E20" s="202" t="s">
+      <c r="E20" s="98" t="s">
         <v>142</v>
       </c>
       <c r="F20" s="96" t="s">
@@ -7338,7 +8548,7 @@
       <c r="E22" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="201" t="s">
+      <c r="F22" s="97" t="s">
         <v>118</v>
       </c>
       <c r="G22" s="91" t="s">

--- a/APF/RA006/RA006_APF0302_密碼還原.xlsx
+++ b/APF/RA006/RA006_APF0302_密碼還原.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>功能清單設定作業</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>效能需求</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -740,6 +736,10 @@
   <si>
     <t>View</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼還原</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6091,7 +6091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -6106,7 +6106,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -6114,64 +6114,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>147</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A6" s="102"/>
       <c r="B6" s="88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" thickTop="1" thickBot="1">
@@ -6327,10 +6327,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="25">
         <v>41563</v>
@@ -6463,8 +6463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6477,10 +6477,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" s="106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
@@ -6521,7 +6521,7 @@
     </row>
     <row r="6" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="124" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="B6" s="125"/>
       <c r="C6" s="125"/>
@@ -6537,14 +6537,14 @@
     </row>
     <row r="7" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="114"/>
       <c r="C7" s="114"/>
       <c r="D7" s="114"/>
       <c r="E7" s="114"/>
       <c r="F7" s="110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="111"/>
       <c r="H7" s="111"/>
@@ -6555,14 +6555,14 @@
     </row>
     <row r="8" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="118"/>
       <c r="C8" s="118"/>
       <c r="D8" s="118"/>
       <c r="E8" s="118"/>
       <c r="F8" s="104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="104"/>
       <c r="H8" s="104"/>
@@ -6573,14 +6573,14 @@
     </row>
     <row r="9" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="109"/>
       <c r="C9" s="109"/>
       <c r="D9" s="109"/>
       <c r="E9" s="109"/>
       <c r="F9" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="111"/>
       <c r="H9" s="111"/>
@@ -6591,14 +6591,14 @@
     </row>
     <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
       <c r="A10" s="121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="118"/>
       <c r="C10" s="118"/>
       <c r="D10" s="118"/>
       <c r="E10" s="118"/>
       <c r="F10" s="104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="104"/>
       <c r="H10" s="104"/>
@@ -6609,14 +6609,14 @@
     </row>
     <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="114"/>
       <c r="C11" s="114"/>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
       <c r="F11" s="120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="111"/>
       <c r="H11" s="111"/>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
       <c r="A12" s="121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="118"/>
       <c r="C12" s="118"/>
@@ -6643,14 +6643,14 @@
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="114"/>
       <c r="C13" s="114"/>
       <c r="D13" s="114"/>
       <c r="E13" s="114"/>
       <c r="F13" s="120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="111"/>
       <c r="H13" s="111"/>
@@ -6661,14 +6661,14 @@
     </row>
     <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
       <c r="A14" s="121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="118"/>
       <c r="C14" s="118"/>
       <c r="D14" s="118"/>
       <c r="E14" s="118"/>
       <c r="F14" s="104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="15" spans="1:13" s="85" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="115"/>
       <c r="C15" s="115"/>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="16" spans="1:13" s="85" customFormat="1" ht="114" customHeight="1">
       <c r="A16" s="117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="118"/>
       <c r="C16" s="118"/>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="17" spans="1:12" s="87" customFormat="1" ht="16.5">
       <c r="A17" s="103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="104"/>
@@ -6740,7 +6740,7 @@
     <row r="32" spans="1:12" ht="27" customHeight="1"/>
     <row r="43" spans="1:12" ht="26.25" customHeight="1">
       <c r="A43" s="103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="104"/>
       <c r="C43" s="104"/>
@@ -6829,7 +6829,7 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>61</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
@@ -6857,7 +6857,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -6946,7 +6946,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="14.25">
       <c r="A5" s="170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="171"/>
       <c r="C5" s="171"/>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="10" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="111"/>
       <c r="C10" s="111"/>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="104"/>
       <c r="C11" s="104"/>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="111"/>
       <c r="C12" s="111"/>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="104"/>
       <c r="C13" s="104"/>
@@ -7115,7 +7115,7 @@
     </row>
     <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="111"/>
       <c r="C14" s="111"/>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="15" spans="1:17" s="43" customFormat="1" ht="33.75" customHeight="1">
       <c r="A15" s="166" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="167"/>
       <c r="C15" s="167"/>
@@ -7143,13 +7143,13 @@
     </row>
     <row r="16" spans="1:17" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" s="157" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="158"/>
       <c r="E16" s="158"/>
@@ -7164,10 +7164,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="130"/>
       <c r="E17" s="130"/>
@@ -7182,10 +7182,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="130"/>
       <c r="E18" s="130"/>
@@ -7200,10 +7200,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="130"/>
       <c r="E19" s="130"/>
@@ -7218,10 +7218,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="130"/>
       <c r="E20" s="130"/>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A22" s="166" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="167"/>
       <c r="C22" s="167"/>
@@ -7259,13 +7259,13 @@
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="C23" s="157" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="157" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="158"/>
       <c r="E23" s="158"/>
@@ -7280,10 +7280,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="130"/>
       <c r="E24" s="130"/>
@@ -7298,10 +7298,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="130"/>
       <c r="E25" s="130"/>
@@ -7316,10 +7316,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="130"/>
       <c r="E26" s="130"/>
@@ -7334,10 +7334,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="130"/>
       <c r="E27" s="130"/>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="164"/>
       <c r="C29" s="164"/>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="36.75" customHeight="1">
       <c r="A30" s="166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="167"/>
       <c r="C30" s="167"/>
@@ -7389,13 +7389,13 @@
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="C31" s="157" t="s">
         <v>46</v>
-      </c>
-      <c r="C31" s="157" t="s">
-        <v>47</v>
       </c>
       <c r="D31" s="158"/>
       <c r="E31" s="158"/>
@@ -7410,10 +7410,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="189" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32" s="190"/>
       <c r="E32" s="190"/>
@@ -7428,7 +7428,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="192"/>
       <c r="D33" s="193"/>
@@ -7444,7 +7444,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="192"/>
       <c r="D34" s="193"/>
@@ -7460,7 +7460,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="195"/>
       <c r="D35" s="196"/>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A37" s="166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="187"/>
       <c r="C37" s="187"/>
@@ -7499,13 +7499,13 @@
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="C38" s="157" t="s">
         <v>46</v>
-      </c>
-      <c r="C38" s="157" t="s">
-        <v>47</v>
       </c>
       <c r="D38" s="158"/>
       <c r="E38" s="158"/>
@@ -7520,10 +7520,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="130"/>
       <c r="E39" s="130"/>
@@ -7538,10 +7538,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="130"/>
       <c r="E40" s="130"/>
@@ -7556,10 +7556,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="130"/>
       <c r="E41" s="130"/>
@@ -7574,10 +7574,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="130"/>
       <c r="E42" s="130"/>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="162"/>
       <c r="C44" s="162"/>
@@ -7615,19 +7615,19 @@
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="D45" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="E45" s="152" t="s">
         <v>54</v>
-      </c>
-      <c r="E45" s="152" t="s">
-        <v>55</v>
       </c>
       <c r="F45" s="153"/>
       <c r="G45" s="153"/>
@@ -7642,12 +7642,12 @@
         <v>1</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="151" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="118"/>
       <c r="G46" s="118"/>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A48" s="154" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="155"/>
       <c r="C48" s="155"/>
@@ -7686,14 +7686,14 @@
         <v>1</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="58"/>
       <c r="E49" s="132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F49" s="133"/>
       <c r="G49" s="133"/>
@@ -7706,14 +7706,14 @@
         <v>2</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="58"/>
       <c r="E50" s="132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F50" s="133"/>
       <c r="G50" s="133"/>
@@ -7726,14 +7726,14 @@
         <v>3</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="60"/>
       <c r="E51" s="136" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F51" s="104"/>
       <c r="G51" s="104"/>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A53" s="148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="149"/>
       <c r="C53" s="149"/>
@@ -7772,14 +7772,14 @@
         <v>1</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="151" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F54" s="118"/>
       <c r="G54" s="118"/>
@@ -7792,14 +7792,14 @@
         <v>2</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="58"/>
       <c r="E55" s="132" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F55" s="133"/>
       <c r="G55" s="133"/>
@@ -7812,14 +7812,14 @@
         <v>3</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="58"/>
       <c r="E56" s="132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F56" s="133"/>
       <c r="G56" s="133"/>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="58" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="142" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="143"/>
       <c r="C58" s="143"/>
@@ -7855,10 +7855,10 @@
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="145" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="146"/>
       <c r="D59" s="136"/>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="65" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A65" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="64"/>
       <c r="C65" s="65"/>
@@ -7948,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="127"/>
       <c r="D66" s="104"/>
@@ -7964,7 +7964,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="128"/>
       <c r="D67" s="128"/>
@@ -8091,7 +8091,7 @@
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
       <c r="L1" s="106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="6" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A6" s="198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="199"/>
       <c r="C6" s="199"/>
@@ -8185,19 +8185,19 @@
     </row>
     <row r="7" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A7" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="C7" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="D7" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="E7" s="71" t="s">
         <v>130</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>131</v>
       </c>
       <c r="F7" s="71" t="s">
         <v>6</v>
@@ -8206,10 +8206,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="71" t="s">
         <v>132</v>
-      </c>
-      <c r="I7" s="71" t="s">
-        <v>133</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>0</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="10" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A10" s="198" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="201"/>
       <c r="C10" s="201"/>
@@ -8257,19 +8257,19 @@
     </row>
     <row r="11" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A11" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="C11" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="D11" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="E11" s="71" t="s">
         <v>130</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>131</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>6</v>
@@ -8278,10 +8278,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="71" t="s">
         <v>132</v>
-      </c>
-      <c r="I11" s="71" t="s">
-        <v>133</v>
       </c>
       <c r="J11" s="71" t="s">
         <v>0</v>
@@ -8292,29 +8292,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8322,29 +8322,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8352,29 +8352,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" s="95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="73"/>
       <c r="I14" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8382,35 +8382,35 @@
         <v>4</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="94" t="s">
         <v>120</v>
-      </c>
-      <c r="G15" s="94" t="s">
-        <v>121</v>
       </c>
       <c r="H15" s="73"/>
       <c r="I15" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="70" customFormat="1" ht="16.5"/>
     <row r="17" spans="1:11" s="70" customFormat="1" ht="16.5">
       <c r="A17" s="198" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="201"/>
       <c r="C17" s="201"/>
@@ -8424,19 +8424,19 @@
     </row>
     <row r="18" spans="1:11" s="70" customFormat="1" ht="16.5">
       <c r="A18" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="C18" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="D18" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="E18" s="71" t="s">
         <v>130</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>131</v>
       </c>
       <c r="F18" s="71" t="s">
         <v>6</v>
@@ -8445,10 +8445,10 @@
         <v>2</v>
       </c>
       <c r="H18" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="71" t="s">
         <v>132</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>133</v>
       </c>
       <c r="J18" s="71" t="s">
         <v>0</v>
@@ -8459,27 +8459,27 @@
         <v>1</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="74"/>
       <c r="I19" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="70" customFormat="1" ht="16.5">
@@ -8487,20 +8487,20 @@
         <v>2</v>
       </c>
       <c r="B20" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="77" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>76</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="G20" s="96" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="96" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="74"/>
       <c r="I20" s="76">
@@ -8513,20 +8513,20 @@
         <v>3</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="96" t="s">
-        <v>83</v>
-      </c>
       <c r="G21" s="74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="74"/>
       <c r="I21" s="76">
@@ -8539,27 +8539,27 @@
         <v>4</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G22" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="73"/>
       <c r="I22" s="76">
         <v>0</v>
       </c>
       <c r="J22" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:11">

--- a/APF/RA006/RA006_APF0302_密碼還原.xlsx
+++ b/APF/RA006/RA006_APF0302_密碼還原.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -672,10 +672,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -740,6 +736,9 @@
   <si>
     <t>密碼還原</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -1565,14 +1564,50 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1586,21 +1621,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1611,62 +1631,194 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1696,159 +1848,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2920,7 +2919,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -4708,7 +4707,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="13440833" cy="458258"/>
+          <a:ext cx="13821833" cy="458258"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -5200,7 +5199,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="14012333" cy="439208"/>
+          <a:ext cx="14393333" cy="439208"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -6142,14 +6141,14 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>145</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>146</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -6463,7 +6462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -6479,15 +6478,15 @@
       <c r="A1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="106" t="s">
+      <c r="M1" s="118" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M2" s="107"/>
+      <c r="M2" s="119"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M3" s="107"/>
+      <c r="M3" s="119"/>
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -6504,226 +6503,226 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="123"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="107"/>
     </row>
     <row r="6" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="A6" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="110" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="114"/>
     </row>
     <row r="8" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="104" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="105"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
     </row>
     <row r="9" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110" t="s">
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="114"/>
     </row>
     <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="104" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="104"/>
     </row>
     <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="120" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="112"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="114"/>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="105"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="104"/>
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="120" t="s">
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="114"/>
     </row>
     <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="104" t="s">
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="105"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="104"/>
     </row>
     <row r="15" spans="1:13" s="85" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="116"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
     </row>
     <row r="16" spans="1:13" s="85" customFormat="1" ht="114" customHeight="1">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="119"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="125"/>
     </row>
     <row r="17" spans="1:12" s="87" customFormat="1" ht="16.5">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="105"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
     </row>
     <row r="18" spans="1:12" s="87" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="87" customFormat="1" ht="14.25"/>
@@ -6739,30 +6738,23 @@
     <row r="29" spans="1:12" s="87" customFormat="1" ht="14.25"/>
     <row r="32" spans="1:12" ht="27" customHeight="1"/>
     <row r="43" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="105"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A43:L43"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
@@ -6779,6 +6771,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6856,15 +6855,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="106" t="s">
-        <v>144</v>
+      <c r="P1" s="118" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="107"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="107"/>
+      <c r="P3" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6945,7 +6944,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="118" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="18"/>
@@ -6966,7 +6965,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="107"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
       <c r="A3" s="7"/>
@@ -6979,7 +6978,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="107"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1">
       <c r="A4" s="7"/>
@@ -6994,152 +6993,152 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="14.25">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="172"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="159"/>
     </row>
     <row r="6" spans="1:17" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="173"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="175"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="162"/>
     </row>
     <row r="7" spans="1:17" s="20" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A9" s="180"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="182"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
     </row>
     <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
     </row>
     <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="183" t="s">
+      <c r="A13" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
     </row>
     <row r="15" spans="1:17" s="43" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="1:17" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="45" t="s">
@@ -7148,16 +7147,16 @@
       <c r="B16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1">
       <c r="A17" s="83">
@@ -7166,16 +7165,16 @@
       <c r="B17" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="131"/>
+      <c r="C17" s="171" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A18" s="83">
@@ -7184,16 +7183,16 @@
       <c r="B18" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="129" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
+      <c r="C18" s="171" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="74">
@@ -7202,16 +7201,16 @@
       <c r="B19" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="129" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="131"/>
+      <c r="C19" s="171" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="76">
@@ -7220,42 +7219,42 @@
       <c r="B20" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="129" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="131"/>
+      <c r="C20" s="171" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A21" s="127"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="135"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="129"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A22" s="166" t="s">
+      <c r="A22" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="45" t="s">
@@ -7264,16 +7263,16 @@
       <c r="B23" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="157" t="s">
+      <c r="C23" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A24" s="45">
@@ -7282,16 +7281,16 @@
       <c r="B24" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="160" t="s">
+      <c r="C24" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="131"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="45">
@@ -7300,16 +7299,16 @@
       <c r="B25" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="160" t="s">
+      <c r="C25" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="131"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="152"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="45">
@@ -7318,16 +7317,16 @@
       <c r="B26" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="131"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="45">
@@ -7336,56 +7335,56 @@
       <c r="B27" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="160" t="s">
+      <c r="C27" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="131"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A28" s="184"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
+      <c r="A28" s="147"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="149"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="165"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="155"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="168"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="134"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
@@ -7394,16 +7393,16 @@
       <c r="B31" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="137"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A32" s="45">
@@ -7412,16 +7411,16 @@
       <c r="B32" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="189" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="191"/>
+      <c r="C32" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="140"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A33" s="45">
@@ -7430,14 +7429,14 @@
       <c r="B33" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="192"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="143"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A34" s="45">
@@ -7446,14 +7445,14 @@
       <c r="B34" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="192"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="143"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A35" s="45">
@@ -7462,40 +7461,40 @@
       <c r="B35" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="197"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A36" s="127"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="135"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="129"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A37" s="166" t="s">
+      <c r="A37" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="188"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="132"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -7504,16 +7503,16 @@
       <c r="B38" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="157" t="s">
+      <c r="C38" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="159"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="137"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A39" s="45">
@@ -7522,16 +7521,16 @@
       <c r="B39" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="160" t="s">
+      <c r="C39" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="131"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="152"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A40" s="45">
@@ -7540,16 +7539,16 @@
       <c r="B40" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="131"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="152"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A41" s="45">
@@ -7558,16 +7557,16 @@
       <c r="B41" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="160" t="s">
+      <c r="C41" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="131"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="152"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A42" s="45">
@@ -7576,42 +7575,42 @@
       <c r="B42" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="160" t="s">
+      <c r="C42" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="131"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="152"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A43" s="127"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="135"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="129"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="163"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="179"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="46" t="s">
@@ -7626,14 +7625,14 @@
       <c r="D45" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="152" t="s">
+      <c r="E45" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="173"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="173"/>
       <c r="K45" s="43"/>
       <c r="L45" s="43"/>
     </row>
@@ -7646,40 +7645,40 @@
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
-      <c r="E46" s="151" t="s">
+      <c r="E46" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
     </row>
     <row r="47" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A47" s="52"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="135"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="129"/>
     </row>
     <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A48" s="154" t="s">
+      <c r="A48" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="155"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="156"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="177"/>
     </row>
     <row r="49" spans="1:10" s="44" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="59">
@@ -7692,14 +7691,14 @@
         <v>55</v>
       </c>
       <c r="D49" s="58"/>
-      <c r="E49" s="132" t="s">
+      <c r="E49" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="181"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="182"/>
     </row>
     <row r="50" spans="1:10" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A50" s="56">
@@ -7712,14 +7711,14 @@
         <v>55</v>
       </c>
       <c r="D50" s="58"/>
-      <c r="E50" s="132" t="s">
+      <c r="E50" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="134"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="181"/>
+      <c r="I50" s="181"/>
+      <c r="J50" s="182"/>
     </row>
     <row r="51" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A51" s="59">
@@ -7732,40 +7731,40 @@
         <v>55</v>
       </c>
       <c r="D51" s="60"/>
-      <c r="E51" s="136" t="s">
+      <c r="E51" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="104"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="105"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="104"/>
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A52" s="61"/>
-      <c r="B52" s="147"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="135"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="129"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A53" s="148" t="s">
+      <c r="A53" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="149"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="150"/>
+      <c r="B53" s="185"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="185"/>
+      <c r="H53" s="185"/>
+      <c r="I53" s="185"/>
+      <c r="J53" s="186"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A54" s="45">
@@ -7778,14 +7777,14 @@
         <v>55</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="151" t="s">
+      <c r="E54" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A55" s="45">
@@ -7798,14 +7797,14 @@
         <v>55</v>
       </c>
       <c r="D55" s="58"/>
-      <c r="E55" s="132" t="s">
+      <c r="E55" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="F55" s="133"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="134"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="181"/>
+      <c r="H55" s="181"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="182"/>
     </row>
     <row r="56" spans="1:10" s="43" customFormat="1" ht="70.5" customHeight="1">
       <c r="A56" s="45">
@@ -7818,116 +7817,116 @@
         <v>55</v>
       </c>
       <c r="D56" s="58"/>
-      <c r="E56" s="132" t="s">
+      <c r="E56" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="134"/>
+      <c r="F56" s="181"/>
+      <c r="G56" s="181"/>
+      <c r="H56" s="181"/>
+      <c r="I56" s="181"/>
+      <c r="J56" s="182"/>
     </row>
     <row r="57" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A57" s="62"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="135"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="129"/>
     </row>
     <row r="58" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="144"/>
+      <c r="B58" s="194"/>
+      <c r="C58" s="194"/>
+      <c r="D58" s="194"/>
+      <c r="E58" s="194"/>
+      <c r="F58" s="194"/>
+      <c r="G58" s="194"/>
+      <c r="H58" s="194"/>
+      <c r="I58" s="194"/>
+      <c r="J58" s="195"/>
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="145" t="s">
+      <c r="B59" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="146"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="105"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="183"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="104"/>
     </row>
     <row r="60" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="139"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="141"/>
+      <c r="A60" s="190"/>
+      <c r="B60" s="191"/>
+      <c r="C60" s="191"/>
+      <c r="D60" s="191"/>
+      <c r="E60" s="191"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="191"/>
+      <c r="H60" s="191"/>
+      <c r="I60" s="191"/>
+      <c r="J60" s="192"/>
     </row>
     <row r="61" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="59"/>
       <c r="B61" s="127"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="138"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="183"/>
+      <c r="E61" s="188"/>
+      <c r="F61" s="188"/>
+      <c r="G61" s="188"/>
+      <c r="H61" s="188"/>
+      <c r="I61" s="188"/>
+      <c r="J61" s="189"/>
     </row>
     <row r="62" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="127"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="138"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="183"/>
+      <c r="E62" s="188"/>
+      <c r="F62" s="188"/>
+      <c r="G62" s="188"/>
+      <c r="H62" s="188"/>
+      <c r="I62" s="188"/>
+      <c r="J62" s="189"/>
     </row>
     <row r="63" spans="1:10" s="43" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="139"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="141"/>
+      <c r="A63" s="190"/>
+      <c r="B63" s="191"/>
+      <c r="C63" s="191"/>
+      <c r="D63" s="191"/>
+      <c r="E63" s="191"/>
+      <c r="F63" s="191"/>
+      <c r="G63" s="191"/>
+      <c r="H63" s="191"/>
+      <c r="I63" s="191"/>
+      <c r="J63" s="192"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="59"/>
       <c r="B64" s="127"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="138"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="183"/>
+      <c r="E64" s="188"/>
+      <c r="F64" s="188"/>
+      <c r="G64" s="188"/>
+      <c r="H64" s="188"/>
+      <c r="I64" s="188"/>
+      <c r="J64" s="189"/>
     </row>
     <row r="65" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A65" s="63" t="s">
@@ -7951,13 +7950,13 @@
         <v>63</v>
       </c>
       <c r="C66" s="127"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="104"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="104"/>
-      <c r="J66" s="105"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="104"/>
     </row>
     <row r="67" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A67" s="59">
@@ -7966,28 +7965,51 @@
       <c r="B67" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="128"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
-      <c r="H67" s="128"/>
-      <c r="I67" s="128"/>
-      <c r="J67" s="128"/>
+      <c r="C67" s="187"/>
+      <c r="D67" s="187"/>
+      <c r="E67" s="187"/>
+      <c r="F67" s="187"/>
+      <c r="G67" s="187"/>
+      <c r="H67" s="187"/>
+      <c r="I67" s="187"/>
+      <c r="J67" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J35"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C39:J39"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A15:J15"/>
@@ -8004,40 +8026,17 @@
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8059,8 +8058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:G22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8072,7 +8071,7 @@
     <col min="5" max="5" width="13.625" style="23" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="23" customWidth="1"/>
     <col min="7" max="8" width="13" style="23" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="23" customWidth="1"/>
     <col min="10" max="10" width="46.25" style="23" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="23"/>
@@ -8090,7 +8089,7 @@
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
-      <c r="L1" s="106" t="s">
+      <c r="L1" s="118" t="s">
         <v>30</v>
       </c>
       <c r="M1" s="18"/>
@@ -8112,7 +8111,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
-      <c r="L2" s="107"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="1:18" s="41" customFormat="1" ht="12.75">
       <c r="A3" s="42"/>
@@ -8126,7 +8125,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="107"/>
+      <c r="L3" s="119"/>
     </row>
     <row r="4" spans="1:18" ht="6.75" customHeight="1">
       <c r="A4" s="27"/>
@@ -8209,7 +8208,7 @@
         <v>131</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>0</v>
@@ -8281,7 +8280,7 @@
         <v>131</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="J11" s="71" t="s">
         <v>0</v>
@@ -8301,7 +8300,7 @@
         <v>122</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="95" t="s">
         <v>116</v>
@@ -8331,7 +8330,7 @@
         <v>123</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="95" t="s">
         <v>117</v>
@@ -8361,7 +8360,7 @@
         <v>124</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="95" t="s">
         <v>118</v>
@@ -8391,7 +8390,7 @@
         <v>125</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="94" t="s">
         <v>119</v>
@@ -8448,7 +8447,7 @@
         <v>131</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="J18" s="71" t="s">
         <v>0</v>
@@ -8466,7 +8465,7 @@
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="97" t="s">
         <v>118</v>
@@ -8494,13 +8493,13 @@
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="G20" s="96" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="96" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="74"/>
       <c r="I20" s="76">
@@ -8546,7 +8545,7 @@
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="97" t="s">
         <v>117</v>

--- a/APF/RA006/RA006_APF0302_密碼還原.xlsx
+++ b/APF/RA006/RA006_APF0302_密碼還原.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="147">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -139,10 +139,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>畫面示意圖</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -234,15 +230,6 @@
   </si>
   <si>
     <t>使用者由功能清單點選密碼還原時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查詢帳號
-1.使用者於輸入查詢條件篩選欲選取的帳號
-2.系統依查詢條件顯示資料於grid
-密碼還原
-1.選取特定帳號密碼進行密碼還原，系統回應設定成功訊息
-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1290,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1564,13 +1551,49 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1579,27 +1602,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1609,66 +1611,192 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1695,159 +1823,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2861,15 +2836,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2914,13 +2889,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>61</xdr:row>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6105,7 +6080,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -6113,64 +6088,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="101" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A6" s="102"/>
       <c r="B6" s="88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" thickTop="1" thickBot="1">
@@ -6326,10 +6301,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="25">
         <v>41563</v>
@@ -6460,10 +6435,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6476,17 +6451,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="118" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="M1" s="106" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M2" s="119"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M3" s="119"/>
+      <c r="M3" s="107"/>
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -6503,266 +6478,239 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="107"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
     </row>
     <row r="6" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="A6" s="120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="112" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="114"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="103" t="s">
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
+    </row>
+    <row r="9" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
+    </row>
+    <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="104"/>
-    </row>
-    <row r="9" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="114"/>
-    </row>
-    <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="110" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
+    </row>
+    <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112"/>
+    </row>
+    <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A12" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="104"/>
-    </row>
-    <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="114"/>
-    </row>
-    <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A12" s="110" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
+    </row>
+    <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="112"/>
+    </row>
+    <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A14" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="104"/>
-    </row>
-    <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="114"/>
-    </row>
-    <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A14" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="104"/>
-    </row>
-    <row r="15" spans="1:13" s="85" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
-    </row>
-    <row r="16" spans="1:13" s="85" customFormat="1" ht="114" customHeight="1">
-      <c r="A16" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="125"/>
-    </row>
-    <row r="17" spans="1:12" s="87" customFormat="1" ht="16.5">
-      <c r="A17" s="105" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="105"/>
+    </row>
+    <row r="15" spans="1:13" s="87" customFormat="1" ht="16.5">
+      <c r="A15" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="105"/>
+    </row>
+    <row r="16" spans="1:13" s="87" customFormat="1" ht="14.25"/>
+    <row r="17" s="87" customFormat="1" ht="14.25"/>
+    <row r="18" s="87" customFormat="1" ht="14.25"/>
+    <row r="19" s="87" customFormat="1" ht="14.25"/>
+    <row r="20" s="87" customFormat="1" ht="14.25"/>
+    <row r="21" s="87" customFormat="1" ht="14.25"/>
+    <row r="22" s="87" customFormat="1" ht="14.25"/>
+    <row r="23" s="87" customFormat="1" ht="14.25"/>
+    <row r="24" s="87" customFormat="1" ht="14.25"/>
+    <row r="25" s="87" customFormat="1" ht="14.25"/>
+    <row r="26" s="87" customFormat="1" ht="14.25"/>
+    <row r="27" s="87" customFormat="1" ht="14.25"/>
+    <row r="30" ht="27" customHeight="1"/>
+    <row r="41" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A41" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-    </row>
-    <row r="18" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="19" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="20" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="21" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="22" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="23" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="24" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="25" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="26" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="27" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="28" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="29" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="32" spans="1:12" ht="27" customHeight="1"/>
-    <row r="43" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A43" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="104"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A43:L43"/>
+  <mergeCells count="21">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A41:L41"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A15:L15"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -6771,13 +6719,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6797,15 +6738,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6823,13 +6764,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
@@ -6855,15 +6796,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="118" t="s">
-        <v>143</v>
+      <c r="P1" s="106" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="119"/>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="119"/>
+      <c r="P3" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6944,8 +6885,8 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="118" t="s">
-        <v>30</v>
+      <c r="K1" s="106" t="s">
+        <v>29</v>
       </c>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -6965,7 +6906,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="119"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
       <c r="A3" s="7"/>
@@ -6978,7 +6919,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="119"/>
+      <c r="K3" s="107"/>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1">
       <c r="A4" s="7"/>
@@ -6993,646 +6934,646 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="14.25">
-      <c r="A5" s="157" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="159"/>
+      <c r="A5" s="166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:17" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="160"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="162"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:17" s="20" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="178"/>
     </row>
     <row r="10" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="112"/>
+    </row>
+    <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
+      <c r="A11" s="179" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
+    </row>
+    <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-    </row>
-    <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="170" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
+    </row>
+    <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
-    </row>
-    <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="156" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
+    </row>
+    <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-    </row>
-    <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="170" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
-    </row>
-    <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="156" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
     </row>
     <row r="15" spans="1:17" s="43" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
+      <c r="A15" s="162" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="164"/>
     </row>
     <row r="16" spans="1:17" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="137"/>
+        <v>43</v>
+      </c>
+      <c r="C16" s="153" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="155"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1">
       <c r="A17" s="83">
         <v>1</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="171" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
+        <v>65</v>
+      </c>
+      <c r="C17" s="125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A18" s="83">
         <v>2</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="171" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
+        <v>70</v>
+      </c>
+      <c r="C18" s="125" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="74">
         <v>3</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
+        <v>103</v>
+      </c>
+      <c r="C19" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="76">
         <v>4</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="171" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+        <v>102</v>
+      </c>
+      <c r="C20" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A21" s="127"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="129"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="131"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A22" s="130" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
+      <c r="A22" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="164"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="137"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A24" s="45">
         <v>1</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="45">
         <v>2</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
+        <v>72</v>
+      </c>
+      <c r="C25" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="45">
         <v>3</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+        <v>69</v>
+      </c>
+      <c r="C26" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="45">
         <v>4</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
+        <v>71</v>
+      </c>
+      <c r="C27" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A28" s="147"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="149"/>
+      <c r="A28" s="180"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="182"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="153" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
+      <c r="A29" s="157" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="161"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A30" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="134"/>
+      <c r="A30" s="162" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="164"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="137"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="155"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A32" s="45">
         <v>1</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="138" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="140"/>
+        <v>86</v>
+      </c>
+      <c r="C32" s="185" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="187"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A33" s="45">
         <v>2</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="143"/>
+        <v>100</v>
+      </c>
+      <c r="C33" s="188"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="190"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A34" s="45">
         <v>3</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="143"/>
+        <v>67</v>
+      </c>
+      <c r="C34" s="188"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="190"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A35" s="45">
         <v>4</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="146"/>
+        <v>101</v>
+      </c>
+      <c r="C35" s="191"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="193"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A36" s="127"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="129"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="131"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A37" s="130" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="131"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="132"/>
+      <c r="A37" s="162" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="184"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="137"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="155"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A39" s="45">
         <v>1</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="152"/>
+        <v>68</v>
+      </c>
+      <c r="C39" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="127"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A40" s="45">
         <v>2</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="152"/>
+        <v>72</v>
+      </c>
+      <c r="C40" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="127"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A41" s="45">
         <v>3</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="152"/>
+        <v>69</v>
+      </c>
+      <c r="C41" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="127"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A42" s="45">
         <v>4</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="150" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="127"/>
+    </row>
+    <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
+      <c r="A43" s="123"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="131"/>
+    </row>
+    <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="152"/>
-    </row>
-    <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A43" s="127"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="129"/>
-    </row>
-    <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="178"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="179"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="158"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="158"/>
+      <c r="H44" s="158"/>
+      <c r="I44" s="158"/>
+      <c r="J44" s="159"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="E45" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="172" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="173"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="149"/>
       <c r="K45" s="43"/>
       <c r="L45" s="43"/>
     </row>
@@ -7641,296 +7582,296 @@
         <v>1</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
-      <c r="E46" s="174" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
+      <c r="E46" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
     </row>
     <row r="47" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A47" s="52"/>
-      <c r="B47" s="128"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="129"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="131"/>
     </row>
     <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A48" s="175" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="176"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="176"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="177"/>
+      <c r="A48" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="152"/>
     </row>
     <row r="49" spans="1:10" s="44" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="59">
         <v>1</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="58"/>
-      <c r="E49" s="180" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="181"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="181"/>
-      <c r="I49" s="181"/>
-      <c r="J49" s="182"/>
+      <c r="E49" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="130"/>
     </row>
     <row r="50" spans="1:10" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A50" s="56">
         <v>2</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="58"/>
-      <c r="E50" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181"/>
-      <c r="J50" s="182"/>
+      <c r="E50" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="129"/>
+      <c r="G50" s="129"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="130"/>
     </row>
     <row r="51" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A51" s="59">
         <v>3</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51" s="60"/>
-      <c r="E51" s="183" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="104"/>
+      <c r="E51" s="132" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A52" s="61"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="129"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="131"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A53" s="184" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="185"/>
-      <c r="C53" s="185"/>
-      <c r="D53" s="185"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="185"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="185"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="186"/>
+      <c r="A53" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="146"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A54" s="45">
         <v>1</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
+      <c r="E54" s="147" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A55" s="45">
         <v>2</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D55" s="58"/>
-      <c r="E55" s="180" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="181"/>
-      <c r="G55" s="181"/>
-      <c r="H55" s="181"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="182"/>
+      <c r="E55" s="128" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="130"/>
     </row>
     <row r="56" spans="1:10" s="43" customFormat="1" ht="70.5" customHeight="1">
       <c r="A56" s="45">
         <v>3</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56" s="58"/>
-      <c r="E56" s="180" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" s="181"/>
-      <c r="G56" s="181"/>
-      <c r="H56" s="181"/>
-      <c r="I56" s="181"/>
-      <c r="J56" s="182"/>
+      <c r="E56" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="130"/>
     </row>
     <row r="57" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A57" s="62"/>
-      <c r="B57" s="128"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="128"/>
-      <c r="J57" s="129"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="131"/>
     </row>
     <row r="58" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="194"/>
-      <c r="C58" s="194"/>
-      <c r="D58" s="194"/>
-      <c r="E58" s="194"/>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="194"/>
-      <c r="I58" s="194"/>
-      <c r="J58" s="195"/>
+      <c r="A58" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="139"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="140"/>
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="196" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="197"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="104"/>
+        <v>42</v>
+      </c>
+      <c r="B59" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="142"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="105"/>
     </row>
     <row r="60" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="190"/>
-      <c r="B60" s="191"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="191"/>
-      <c r="E60" s="191"/>
-      <c r="F60" s="191"/>
-      <c r="G60" s="191"/>
-      <c r="H60" s="191"/>
-      <c r="I60" s="191"/>
-      <c r="J60" s="192"/>
+      <c r="A60" s="135"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="136"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="136"/>
+      <c r="J60" s="137"/>
     </row>
     <row r="61" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="59"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="183"/>
-      <c r="E61" s="188"/>
-      <c r="F61" s="188"/>
-      <c r="G61" s="188"/>
-      <c r="H61" s="188"/>
-      <c r="I61" s="188"/>
-      <c r="J61" s="189"/>
+      <c r="B61" s="123"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="133"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="134"/>
     </row>
     <row r="62" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="59"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="183"/>
-      <c r="E62" s="188"/>
-      <c r="F62" s="188"/>
-      <c r="G62" s="188"/>
-      <c r="H62" s="188"/>
-      <c r="I62" s="188"/>
-      <c r="J62" s="189"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="134"/>
     </row>
     <row r="63" spans="1:10" s="43" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="190"/>
-      <c r="B63" s="191"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="191"/>
-      <c r="E63" s="191"/>
-      <c r="F63" s="191"/>
-      <c r="G63" s="191"/>
-      <c r="H63" s="191"/>
-      <c r="I63" s="191"/>
-      <c r="J63" s="192"/>
+      <c r="A63" s="135"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="136"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="137"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="59"/>
-      <c r="B64" s="127"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="183"/>
-      <c r="E64" s="188"/>
-      <c r="F64" s="188"/>
-      <c r="G64" s="188"/>
-      <c r="H64" s="188"/>
-      <c r="I64" s="188"/>
-      <c r="J64" s="189"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="133"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="134"/>
     </row>
     <row r="65" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A65" s="63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" s="64"/>
       <c r="C65" s="65"/>
@@ -7947,35 +7888,80 @@
         <v>1</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="127"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="104"/>
+        <v>61</v>
+      </c>
+      <c r="C66" s="123"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="105"/>
     </row>
     <row r="67" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A67" s="59">
         <v>2</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="187"/>
-      <c r="D67" s="187"/>
-      <c r="E67" s="187"/>
-      <c r="F67" s="187"/>
-      <c r="G67" s="187"/>
-      <c r="H67" s="187"/>
-      <c r="I67" s="187"/>
-      <c r="J67" s="187"/>
+        <v>61</v>
+      </c>
+      <c r="C67" s="124"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J35"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E54:J54"/>
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C20:J20"/>
@@ -7992,51 +7978,6 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:J61"/>
     <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8058,7 +7999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -8089,8 +8030,8 @@
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
-      <c r="L1" s="118" t="s">
-        <v>30</v>
+      <c r="L1" s="106" t="s">
+        <v>29</v>
       </c>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
@@ -8111,7 +8052,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
-      <c r="L2" s="119"/>
+      <c r="L2" s="107"/>
     </row>
     <row r="3" spans="1:18" s="41" customFormat="1" ht="12.75">
       <c r="A3" s="42"/>
@@ -8125,7 +8066,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="119"/>
+      <c r="L3" s="107"/>
     </row>
     <row r="4" spans="1:18" ht="6.75" customHeight="1">
       <c r="A4" s="27"/>
@@ -8163,18 +8104,18 @@
       <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A6" s="198" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="A6" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="78"/>
       <c r="L6" s="78"/>
       <c r="M6" s="78"/>
@@ -8184,19 +8125,19 @@
     </row>
     <row r="7" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A7" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="D7" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="E7" s="71" t="s">
         <v>128</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>130</v>
       </c>
       <c r="F7" s="71" t="s">
         <v>6</v>
@@ -8205,10 +8146,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>0</v>
@@ -8241,34 +8182,34 @@
       <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A10" s="198" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="202"/>
+      <c r="A10" s="194" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
     </row>
     <row r="11" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A11" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="D11" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="E11" s="71" t="s">
         <v>128</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>130</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>6</v>
@@ -8277,10 +8218,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J11" s="71" t="s">
         <v>0</v>
@@ -8291,29 +8232,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F12" s="95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J12" s="80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8321,29 +8262,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8351,29 +8292,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F14" s="95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H14" s="73"/>
       <c r="I14" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J14" s="80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8381,61 +8322,61 @@
         <v>4</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G15" s="94" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H15" s="73"/>
       <c r="I15" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" s="80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="70" customFormat="1" ht="16.5"/>
     <row r="17" spans="1:11" s="70" customFormat="1" ht="16.5">
-      <c r="A17" s="198" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="202"/>
+      <c r="A17" s="194" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="197"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="198"/>
     </row>
     <row r="18" spans="1:11" s="70" customFormat="1" ht="16.5">
       <c r="A18" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="D18" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="E18" s="71" t="s">
         <v>128</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>130</v>
       </c>
       <c r="F18" s="71" t="s">
         <v>6</v>
@@ -8444,10 +8385,10 @@
         <v>2</v>
       </c>
       <c r="H18" s="71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J18" s="71" t="s">
         <v>0</v>
@@ -8458,27 +8399,27 @@
         <v>1</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H19" s="74"/>
       <c r="I19" s="76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19" s="80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="70" customFormat="1" ht="16.5">
@@ -8486,20 +8427,20 @@
         <v>2</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="96" t="s">
         <v>140</v>
-      </c>
-      <c r="F20" s="96" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="96" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="74"/>
       <c r="I20" s="76">
@@ -8512,20 +8453,20 @@
         <v>3</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F21" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="74" t="s">
         <v>82</v>
-      </c>
-      <c r="G21" s="74" t="s">
-        <v>84</v>
       </c>
       <c r="H21" s="74"/>
       <c r="I21" s="76">
@@ -8538,27 +8479,27 @@
         <v>4</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G22" s="91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22" s="73"/>
       <c r="I22" s="76">
         <v>0</v>
       </c>
       <c r="J22" s="80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:11">

--- a/APF/RA006/RA006_APF0302_密碼還原.xlsx
+++ b/APF/RA006/RA006_APF0302_密碼還原.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -32,12 +27,12 @@
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="148">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -139,6 +134,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>畫面示意圖</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -233,6 +232,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t xml:space="preserve">查詢帳號
+1.使用者於輸入查詢條件篩選欲選取的帳號
+2.系統依查詢條件顯示資料於grid
+密碼還原
+1.選取特定帳號密碼進行密碼還原，系統回應設定成功訊息
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>事前檢核</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -560,12 +568,6 @@
   <si>
     <t>欄位_APF0302MM1</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>點選此按鈕後，系統回應提示確認訊息，訊息內容請參考APF訊息表 43。
-1. 若選擇是，則進行密碼還原並回應成功訊息，如失敗，則顯示還原失敗訊息，訊息內容請參考APF訊息表 2 及 5。
-2. 若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>varchar2(10)</t>
@@ -659,30 +661,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 輸入型態:string，最大長度限制:英文10(控制項控制)
-2. 如先輸入或按查詢鈕選擇員工編號 ，則員工姓名、部門代號、員工職稱 被自動帶出且該三欄位是disable</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，最大長度限制:英文5(控制項控制)
-2. 如先輸入或按查詢鈕選擇員工職稱，則員工編號、員工姓名、是disable，不可再輸入，</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，最大長度限制:英文10(控制項控制)
-2. 如先輸入或按查詢鈕選擇部門代號，則員工編號、員工姓名、是disable，不可再輸入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 輸入型態:string，最大長度限制:英文20(控制項控制)
-2. 如先輸入員工姓名，則員工編號、部門代號、員工職稱 被自動帶出且該三欄位是disable</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>emp_d</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -725,7 +711,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入/輸出/必填</t>
+    <t>1. 輸入型態:string，最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 輸入型態:string，最大長度限制:英文20(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 輸入型態:string，最大長度限制:英文5(控制項控制)2. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選此按鈕後，系統回應提示確認訊息，訊息內容請參考APF訊息表 43。
+1. 若選擇是，則進行密碼還原，如成功，回到原本選取密碼還原畫面並回應成功訊息；如失敗，則顯示還原失敗訊息，仍回至原本畫面。
+，訊息內容請參考APF訊息表 2 及 5。
+2. 若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1277,7 +1279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1587,8 +1589,20 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2836,15 +2850,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>619125</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:colOff>628650</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2857,7 +2871,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2865,17 +2879,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2889,13 +2892,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>61</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2909,7 +2912,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2917,17 +2920,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3477,7 +3469,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3485,17 +3477,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4052,7 +4033,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9466984" cy="454602"/>
+          <a:ext cx="9458325" cy="447675"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -4682,7 +4663,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="13821833" cy="458258"/>
+          <a:ext cx="13440833" cy="458258"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -5174,7 +5155,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="14393333" cy="439208"/>
+          <a:ext cx="14012333" cy="439208"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -6080,7 +6061,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="99" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -6088,64 +6069,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="C3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="101" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A6" s="102"/>
       <c r="B6" s="88" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" thickTop="1" thickBot="1">
@@ -6301,10 +6282,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="25">
         <v>41563</v>
@@ -6435,10 +6416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6451,10 +6432,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
@@ -6481,33 +6462,33 @@
       <c r="A5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="123"/>
     </row>
     <row r="6" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
+      <c r="A6" s="124" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
     </row>
     <row r="7" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="113" t="s">
@@ -6528,15 +6509,15 @@
       <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="A8" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="104"/>
       <c r="H8" s="104"/>
@@ -6564,15 +6545,15 @@
       <c r="L9" s="112"/>
     </row>
     <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="117" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="A10" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="104" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G10" s="104"/>
       <c r="H10" s="104"/>
@@ -6589,7 +6570,7 @@
       <c r="C11" s="114"/>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="120" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="111"/>
@@ -6600,13 +6581,13 @@
       <c r="L11" s="112"/>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A12" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
+      <c r="A12" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="104"/>
       <c r="G12" s="104"/>
       <c r="H12" s="104"/>
@@ -6623,7 +6604,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="114"/>
       <c r="E13" s="114"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="120" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="111"/>
@@ -6634,15 +6615,15 @@
       <c r="L13" s="112"/>
     </row>
     <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A14" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
+      <c r="A14" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="104" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
@@ -6651,53 +6632,85 @@
       <c r="K14" s="104"/>
       <c r="L14" s="105"/>
     </row>
-    <row r="15" spans="1:13" s="87" customFormat="1" ht="16.5">
+    <row r="15" spans="1:13" s="85" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105"/>
-    </row>
-    <row r="16" spans="1:13" s="87" customFormat="1" ht="14.25"/>
-    <row r="17" s="87" customFormat="1" ht="14.25"/>
-    <row r="18" s="87" customFormat="1" ht="14.25"/>
-    <row r="19" s="87" customFormat="1" ht="14.25"/>
-    <row r="20" s="87" customFormat="1" ht="14.25"/>
-    <row r="21" s="87" customFormat="1" ht="14.25"/>
-    <row r="22" s="87" customFormat="1" ht="14.25"/>
-    <row r="23" s="87" customFormat="1" ht="14.25"/>
-    <row r="24" s="87" customFormat="1" ht="14.25"/>
-    <row r="25" s="87" customFormat="1" ht="14.25"/>
-    <row r="26" s="87" customFormat="1" ht="14.25"/>
-    <row r="27" s="87" customFormat="1" ht="14.25"/>
-    <row r="30" ht="27" customHeight="1"/>
-    <row r="41" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A41" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="116"/>
+    </row>
+    <row r="16" spans="1:13" s="85" customFormat="1" ht="114" customHeight="1">
+      <c r="A16" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
+    </row>
+    <row r="17" spans="1:12" s="87" customFormat="1" ht="16.5">
+      <c r="A17" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="105"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
+    </row>
+    <row r="18" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="19" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="20" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="21" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="22" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="23" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="24" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="25" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="26" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="27" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="28" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="29" spans="1:12" s="87" customFormat="1" ht="14.25"/>
+    <row r="32" spans="1:12" ht="27" customHeight="1"/>
+    <row r="43" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A43" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A7:E7"/>
@@ -6705,12 +6718,14 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A43:L43"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -6734,19 +6749,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="29897" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6764,13 +6779,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>61</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
@@ -6797,7 +6812,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -6854,8 +6869,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:J18"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6886,7 +6901,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -6934,72 +6949,72 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="14.25">
-      <c r="A5" s="166" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="168"/>
+      <c r="A5" s="170" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
     </row>
     <row r="6" spans="1:17" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="175"/>
     </row>
     <row r="7" spans="1:17" s="20" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="178"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="165" t="s">
-        <v>36</v>
+      <c r="A10" s="169" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="111"/>
       <c r="C10" s="111"/>
@@ -7012,8 +7027,8 @@
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="179" t="s">
-        <v>37</v>
+      <c r="A11" s="183" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="104"/>
       <c r="C11" s="104"/>
@@ -7026,8 +7041,8 @@
       <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="165" t="s">
-        <v>38</v>
+      <c r="A12" s="169" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="111"/>
       <c r="C12" s="111"/>
@@ -7040,8 +7055,8 @@
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="179" t="s">
-        <v>39</v>
+      <c r="A13" s="183" t="s">
+        <v>41</v>
       </c>
       <c r="B13" s="104"/>
       <c r="C13" s="104"/>
@@ -7054,8 +7069,8 @@
       <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="165" t="s">
-        <v>40</v>
+      <c r="A14" s="169" t="s">
+        <v>42</v>
       </c>
       <c r="B14" s="111"/>
       <c r="C14" s="111"/>
@@ -7068,512 +7083,512 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="1:17" s="43" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="162" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
+      <c r="A15" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="168"/>
     </row>
     <row r="16" spans="1:17" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="153" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="155"/>
+        <v>45</v>
+      </c>
+      <c r="C16" s="157" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1">
       <c r="A17" s="83">
         <v>1</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="127"/>
+        <v>67</v>
+      </c>
+      <c r="C17" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="131"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A18" s="83">
         <v>2</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="125" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
+        <v>72</v>
+      </c>
+      <c r="C18" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="131"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="74">
         <v>3</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="127"/>
+        <v>105</v>
+      </c>
+      <c r="C19" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="131"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="76">
         <v>4</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="127"/>
+        <v>104</v>
+      </c>
+      <c r="C20" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A21" s="123"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="131"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A22" s="162" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
+      <c r="A22" s="166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
+        <v>45</v>
+      </c>
+      <c r="C23" s="157" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A24" s="45">
         <v>1</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="127"/>
+        <v>70</v>
+      </c>
+      <c r="C24" s="160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="45">
         <v>2</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
+        <v>74</v>
+      </c>
+      <c r="C25" s="160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="131"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="45">
         <v>3</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="127"/>
+        <v>71</v>
+      </c>
+      <c r="C26" s="160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="131"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="45">
         <v>4</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="127"/>
+        <v>73</v>
+      </c>
+      <c r="C27" s="160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="131"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A28" s="180"/>
-      <c r="B28" s="181"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="182"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="186"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="157" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
+      <c r="A29" s="161" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A30" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="164"/>
+      <c r="A30" s="166" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="168"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
+        <v>45</v>
+      </c>
+      <c r="C31" s="157" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="159"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A32" s="45">
         <v>1</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="185" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="187"/>
+        <v>88</v>
+      </c>
+      <c r="C32" s="189" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="190"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="191"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A33" s="45">
         <v>2</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="188"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="190"/>
+        <v>102</v>
+      </c>
+      <c r="C33" s="192"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="194"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A34" s="45">
         <v>3</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="190"/>
+        <v>69</v>
+      </c>
+      <c r="C34" s="192"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A35" s="45">
         <v>4</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="191"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="193"/>
+        <v>103</v>
+      </c>
+      <c r="C35" s="195"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A36" s="123"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="131"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="135"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A37" s="162" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="184"/>
+      <c r="A37" s="166" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="187"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="188"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="155"/>
+        <v>45</v>
+      </c>
+      <c r="C38" s="157" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="159"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A39" s="45">
         <v>1</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="127"/>
+        <v>70</v>
+      </c>
+      <c r="C39" s="160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A40" s="45">
         <v>2</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="127"/>
+        <v>74</v>
+      </c>
+      <c r="C40" s="160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="131"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A41" s="45">
         <v>3</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="127"/>
+        <v>71</v>
+      </c>
+      <c r="C41" s="160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="131"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A42" s="45">
         <v>4</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="127"/>
+        <v>73</v>
+      </c>
+      <c r="C42" s="160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="131"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A43" s="123"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="131"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="135"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="157" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="158"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
-      <c r="J44" s="159"/>
+      <c r="A44" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="162"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="163"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="148" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
+        <v>53</v>
+      </c>
+      <c r="E45" s="152" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
       <c r="K45" s="43"/>
       <c r="L45" s="43"/>
     </row>
@@ -7582,98 +7597,98 @@
         <v>1</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
-      <c r="E46" s="147" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
+      <c r="E46" s="151" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
     </row>
     <row r="47" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A47" s="52"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="143"/>
-      <c r="J47" s="131"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="135"/>
     </row>
     <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A48" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="151"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="152"/>
+      <c r="A48" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="156"/>
     </row>
     <row r="49" spans="1:10" s="44" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="59">
         <v>1</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D49" s="58"/>
-      <c r="E49" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="130"/>
+      <c r="E49" s="132" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="134"/>
     </row>
     <row r="50" spans="1:10" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A50" s="56">
         <v>2</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D50" s="58"/>
-      <c r="E50" s="128" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="130"/>
+      <c r="E50" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="134"/>
     </row>
     <row r="51" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A51" s="59">
         <v>3</v>
       </c>
       <c r="B51" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="54" t="s">
-        <v>53</v>
-      </c>
       <c r="D51" s="60"/>
-      <c r="E51" s="132" t="s">
-        <v>91</v>
+      <c r="E51" s="136" t="s">
+        <v>93</v>
       </c>
       <c r="F51" s="104"/>
       <c r="G51" s="104"/>
@@ -7683,125 +7698,125 @@
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A52" s="61"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
-      <c r="E52" s="143"/>
-      <c r="F52" s="143"/>
-      <c r="G52" s="143"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="131"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="135"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A53" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="146"/>
+      <c r="A53" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="149"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="149"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="150"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A54" s="45">
         <v>1</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="147" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
+      <c r="E54" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="118"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A55" s="45">
         <v>2</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D55" s="58"/>
-      <c r="E55" s="128" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="130"/>
-    </row>
-    <row r="56" spans="1:10" s="43" customFormat="1" ht="70.5" customHeight="1">
+      <c r="E55" s="132" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="133"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="134"/>
+    </row>
+    <row r="56" spans="1:10" s="43" customFormat="1" ht="84" customHeight="1">
       <c r="A56" s="45">
         <v>3</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D56" s="58"/>
-      <c r="E56" s="128" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="130"/>
+      <c r="E56" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="134"/>
     </row>
     <row r="57" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A57" s="62"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="131"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="135"/>
     </row>
     <row r="58" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="139"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="140"/>
+      <c r="A58" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="144"/>
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="141" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="142"/>
-      <c r="D59" s="132"/>
+        <v>44</v>
+      </c>
+      <c r="B59" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="146"/>
+      <c r="D59" s="136"/>
       <c r="E59" s="104"/>
       <c r="F59" s="104"/>
       <c r="G59" s="104"/>
@@ -7810,68 +7825,68 @@
       <c r="J59" s="105"/>
     </row>
     <row r="60" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="135"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="136"/>
-      <c r="G60" s="136"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="136"/>
-      <c r="J60" s="137"/>
+      <c r="A60" s="139"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="141"/>
     </row>
     <row r="61" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="59"/>
-      <c r="B61" s="123"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="133"/>
-      <c r="F61" s="133"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="134"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="138"/>
     </row>
     <row r="62" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="59"/>
-      <c r="B62" s="123"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="134"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="138"/>
     </row>
     <row r="63" spans="1:10" s="43" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="135"/>
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="136"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
-      <c r="J63" s="137"/>
+      <c r="A63" s="139"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="141"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="59"/>
-      <c r="B64" s="123"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="133"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="134"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="138"/>
     </row>
     <row r="65" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A65" s="63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="64"/>
       <c r="C65" s="65"/>
@@ -7888,9 +7903,9 @@
         <v>1</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="123"/>
+        <v>63</v>
+      </c>
+      <c r="C66" s="127"/>
       <c r="D66" s="104"/>
       <c r="E66" s="104"/>
       <c r="F66" s="104"/>
@@ -7904,16 +7919,16 @@
         <v>2</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="124"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="124"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="124"/>
+        <v>63</v>
+      </c>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -8000,7 +8015,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E19" sqref="E19:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8012,7 +8027,7 @@
     <col min="5" max="5" width="13.625" style="23" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="23" customWidth="1"/>
     <col min="7" max="8" width="13" style="23" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" style="23" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="23"/>
@@ -8031,7 +8046,7 @@
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
       <c r="L1" s="106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
@@ -8104,18 +8119,18 @@
       <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A6" s="194" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="196"/>
+      <c r="A6" s="198" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
       <c r="K6" s="78"/>
       <c r="L6" s="78"/>
       <c r="M6" s="78"/>
@@ -8125,19 +8140,19 @@
     </row>
     <row r="7" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A7" s="71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F7" s="71" t="s">
         <v>6</v>
@@ -8146,10 +8161,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>0</v>
@@ -8182,34 +8197,34 @@
       <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A10" s="194" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="197"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="198"/>
+      <c r="A10" s="198" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="202"/>
     </row>
     <row r="11" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A11" s="71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>6</v>
@@ -8218,10 +8233,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J11" s="71" t="s">
         <v>0</v>
@@ -8232,29 +8247,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="91" t="s">
         <v>120</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="91" t="s">
-        <v>119</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" s="80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8262,29 +8277,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8292,29 +8307,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F14" s="95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14" s="73"/>
       <c r="I14" s="76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J14" s="80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8322,61 +8337,61 @@
         <v>4</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" s="94" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H15" s="73"/>
       <c r="I15" s="76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J15" s="80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="70" customFormat="1" ht="16.5"/>
     <row r="17" spans="1:11" s="70" customFormat="1" ht="16.5">
-      <c r="A17" s="194" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="198"/>
+      <c r="A17" s="198" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="201"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="202"/>
     </row>
     <row r="18" spans="1:11" s="70" customFormat="1" ht="16.5">
       <c r="A18" s="71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D18" s="71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F18" s="71" t="s">
         <v>6</v>
@@ -8385,10 +8400,10 @@
         <v>2</v>
       </c>
       <c r="H18" s="71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J18" s="71" t="s">
         <v>0</v>
@@ -8399,27 +8414,27 @@
         <v>1</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="74"/>
       <c r="I19" s="76" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J19" s="80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="70" customFormat="1" ht="16.5">
@@ -8427,20 +8442,20 @@
         <v>2</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="96" t="s">
         <v>138</v>
-      </c>
-      <c r="F20" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="96" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="74"/>
       <c r="I20" s="76">
@@ -8453,20 +8468,20 @@
         <v>3</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="92" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F21" s="96" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H21" s="74"/>
       <c r="I21" s="76">
@@ -8479,27 +8494,27 @@
         <v>4</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G22" s="91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="73"/>
       <c r="I22" s="76">
         <v>0</v>
       </c>
       <c r="J22" s="80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:11">

--- a/APF/RA006/RA006_APF0302_密碼還原.xlsx
+++ b/APF/RA006/RA006_APF0302_密碼還原.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -27,7 +32,7 @@
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1553,14 +1558,50 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1574,21 +1615,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1599,62 +1625,194 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1684,159 +1842,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2871,7 +2876,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2879,6 +2884,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2898,8 +2914,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2912,7 +2928,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2920,6 +2936,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3469,7 +3496,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3477,6 +3504,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6418,8 +6456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6434,15 +6472,15 @@
       <c r="A1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="106" t="s">
+      <c r="M1" s="118" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M2" s="107"/>
+      <c r="M2" s="119"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M3" s="107"/>
+      <c r="M3" s="119"/>
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -6459,226 +6497,226 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="123"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="107"/>
     </row>
     <row r="6" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="110" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="114"/>
     </row>
     <row r="8" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="104" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="105"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
     </row>
     <row r="9" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110" t="s">
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="114"/>
     </row>
     <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="104" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="104"/>
     </row>
     <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="120" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="112"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="114"/>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="105"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="104"/>
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="120" t="s">
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="114"/>
     </row>
     <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="104" t="s">
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="105"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="104"/>
     </row>
     <row r="15" spans="1:13" s="85" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="116"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
     </row>
     <row r="16" spans="1:13" s="85" customFormat="1" ht="114" customHeight="1">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="119"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="125"/>
     </row>
     <row r="17" spans="1:12" s="87" customFormat="1" ht="16.5">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="105"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
     </row>
     <row r="18" spans="1:12" s="87" customFormat="1" ht="14.25"/>
     <row r="19" spans="1:12" s="87" customFormat="1" ht="14.25"/>
@@ -6694,30 +6732,23 @@
     <row r="29" spans="1:12" s="87" customFormat="1" ht="14.25"/>
     <row r="32" spans="1:12" ht="27" customHeight="1"/>
     <row r="43" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="105"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A43:L43"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
@@ -6734,6 +6765,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6785,8 +6823,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6811,15 +6849,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="106" t="s">
+      <c r="P1" s="118" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="107"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="107"/>
+      <c r="P3" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6869,7 +6907,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E56" sqref="E56:J56"/>
     </sheetView>
   </sheetViews>
@@ -6900,7 +6938,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="118" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="18"/>
@@ -6921,7 +6959,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="107"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
       <c r="A3" s="7"/>
@@ -6934,7 +6972,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="107"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1">
       <c r="A4" s="7"/>
@@ -6949,152 +6987,152 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="14.25">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="172"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="159"/>
     </row>
     <row r="6" spans="1:17" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="173"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="175"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="162"/>
     </row>
     <row r="7" spans="1:17" s="20" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A9" s="180"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="182"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
     </row>
     <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
     </row>
     <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="183" t="s">
+      <c r="A13" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="104"/>
     </row>
     <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
     </row>
     <row r="15" spans="1:17" s="43" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="1:17" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="45" t="s">
@@ -7103,16 +7141,16 @@
       <c r="B16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1">
       <c r="A17" s="83">
@@ -7121,16 +7159,16 @@
       <c r="B17" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="131"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A18" s="83">
@@ -7139,16 +7177,16 @@
       <c r="B18" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="171" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="74">
@@ -7157,16 +7195,16 @@
       <c r="B19" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="131"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="76">
@@ -7175,42 +7213,42 @@
       <c r="B20" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="171" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="131"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A21" s="127"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="135"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="129"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A22" s="166" t="s">
+      <c r="A22" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="45" t="s">
@@ -7219,16 +7257,16 @@
       <c r="B23" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="157" t="s">
+      <c r="C23" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A24" s="45">
@@ -7237,16 +7275,16 @@
       <c r="B24" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="160" t="s">
+      <c r="C24" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="131"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="45">
@@ -7255,16 +7293,16 @@
       <c r="B25" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="160" t="s">
+      <c r="C25" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="131"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="152"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="45">
@@ -7273,16 +7311,16 @@
       <c r="B26" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="131"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="45">
@@ -7291,56 +7329,56 @@
       <c r="B27" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="160" t="s">
+      <c r="C27" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="131"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A28" s="184"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="186"/>
+      <c r="A28" s="147"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="149"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="165"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="155"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="168"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="134"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
@@ -7349,16 +7387,16 @@
       <c r="B31" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="137"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A32" s="45">
@@ -7367,16 +7405,16 @@
       <c r="B32" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="189" t="s">
+      <c r="C32" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="191"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="140"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A33" s="45">
@@ -7385,14 +7423,14 @@
       <c r="B33" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="192"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="143"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A34" s="45">
@@ -7401,14 +7439,14 @@
       <c r="B34" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="192"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="143"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A35" s="45">
@@ -7417,40 +7455,40 @@
       <c r="B35" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="197"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A36" s="127"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="135"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="129"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A37" s="166" t="s">
+      <c r="A37" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="188"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="132"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -7459,16 +7497,16 @@
       <c r="B38" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="157" t="s">
+      <c r="C38" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="159"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="137"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A39" s="45">
@@ -7477,16 +7515,16 @@
       <c r="B39" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="160" t="s">
+      <c r="C39" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="131"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="152"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A40" s="45">
@@ -7495,16 +7533,16 @@
       <c r="B40" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="160" t="s">
+      <c r="C40" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="131"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="152"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A41" s="45">
@@ -7513,16 +7551,16 @@
       <c r="B41" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="160" t="s">
+      <c r="C41" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="131"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="152"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A42" s="45">
@@ -7531,42 +7569,42 @@
       <c r="B42" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="160" t="s">
+      <c r="C42" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="131"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="152"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A43" s="127"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="135"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="129"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="163"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="179"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="46" t="s">
@@ -7581,14 +7619,14 @@
       <c r="D45" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="152" t="s">
+      <c r="E45" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="173"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="173"/>
       <c r="K45" s="43"/>
       <c r="L45" s="43"/>
     </row>
@@ -7601,40 +7639,40 @@
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
-      <c r="E46" s="151" t="s">
+      <c r="E46" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
     </row>
     <row r="47" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A47" s="52"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="135"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="129"/>
     </row>
     <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A48" s="154" t="s">
+      <c r="A48" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="155"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="156"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="177"/>
     </row>
     <row r="49" spans="1:10" s="44" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="59">
@@ -7647,14 +7685,14 @@
         <v>55</v>
       </c>
       <c r="D49" s="58"/>
-      <c r="E49" s="132" t="s">
+      <c r="E49" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="181"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="182"/>
     </row>
     <row r="50" spans="1:10" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A50" s="56">
@@ -7667,14 +7705,14 @@
         <v>55</v>
       </c>
       <c r="D50" s="58"/>
-      <c r="E50" s="132" t="s">
+      <c r="E50" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="134"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="181"/>
+      <c r="I50" s="181"/>
+      <c r="J50" s="182"/>
     </row>
     <row r="51" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A51" s="59">
@@ -7687,40 +7725,40 @@
         <v>55</v>
       </c>
       <c r="D51" s="60"/>
-      <c r="E51" s="136" t="s">
+      <c r="E51" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="104"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="105"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="104"/>
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A52" s="61"/>
-      <c r="B52" s="147"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="135"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="129"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A53" s="148" t="s">
+      <c r="A53" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="149"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="150"/>
+      <c r="B53" s="185"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="185"/>
+      <c r="H53" s="185"/>
+      <c r="I53" s="185"/>
+      <c r="J53" s="186"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A54" s="45">
@@ -7733,14 +7771,14 @@
         <v>55</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="151" t="s">
+      <c r="E54" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="118"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A55" s="45">
@@ -7753,14 +7791,14 @@
         <v>55</v>
       </c>
       <c r="D55" s="58"/>
-      <c r="E55" s="132" t="s">
+      <c r="E55" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="F55" s="133"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="134"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="181"/>
+      <c r="H55" s="181"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="182"/>
     </row>
     <row r="56" spans="1:10" s="43" customFormat="1" ht="84" customHeight="1">
       <c r="A56" s="45">
@@ -7773,116 +7811,116 @@
         <v>55</v>
       </c>
       <c r="D56" s="58"/>
-      <c r="E56" s="132" t="s">
+      <c r="E56" s="180" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="134"/>
+      <c r="F56" s="181"/>
+      <c r="G56" s="181"/>
+      <c r="H56" s="181"/>
+      <c r="I56" s="181"/>
+      <c r="J56" s="182"/>
     </row>
     <row r="57" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A57" s="62"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="147"/>
-      <c r="F57" s="147"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="147"/>
-      <c r="J57" s="135"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="129"/>
     </row>
     <row r="58" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="143"/>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="144"/>
+      <c r="B58" s="194"/>
+      <c r="C58" s="194"/>
+      <c r="D58" s="194"/>
+      <c r="E58" s="194"/>
+      <c r="F58" s="194"/>
+      <c r="G58" s="194"/>
+      <c r="H58" s="194"/>
+      <c r="I58" s="194"/>
+      <c r="J58" s="195"/>
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="145" t="s">
+      <c r="B59" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="146"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="105"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="183"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="104"/>
     </row>
     <row r="60" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="139"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="141"/>
+      <c r="A60" s="190"/>
+      <c r="B60" s="191"/>
+      <c r="C60" s="191"/>
+      <c r="D60" s="191"/>
+      <c r="E60" s="191"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="191"/>
+      <c r="H60" s="191"/>
+      <c r="I60" s="191"/>
+      <c r="J60" s="192"/>
     </row>
     <row r="61" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="59"/>
       <c r="B61" s="127"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="138"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="183"/>
+      <c r="E61" s="188"/>
+      <c r="F61" s="188"/>
+      <c r="G61" s="188"/>
+      <c r="H61" s="188"/>
+      <c r="I61" s="188"/>
+      <c r="J61" s="189"/>
     </row>
     <row r="62" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="59"/>
       <c r="B62" s="127"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="138"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="183"/>
+      <c r="E62" s="188"/>
+      <c r="F62" s="188"/>
+      <c r="G62" s="188"/>
+      <c r="H62" s="188"/>
+      <c r="I62" s="188"/>
+      <c r="J62" s="189"/>
     </row>
     <row r="63" spans="1:10" s="43" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="139"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="141"/>
+      <c r="A63" s="190"/>
+      <c r="B63" s="191"/>
+      <c r="C63" s="191"/>
+      <c r="D63" s="191"/>
+      <c r="E63" s="191"/>
+      <c r="F63" s="191"/>
+      <c r="G63" s="191"/>
+      <c r="H63" s="191"/>
+      <c r="I63" s="191"/>
+      <c r="J63" s="192"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="59"/>
       <c r="B64" s="127"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="138"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="183"/>
+      <c r="E64" s="188"/>
+      <c r="F64" s="188"/>
+      <c r="G64" s="188"/>
+      <c r="H64" s="188"/>
+      <c r="I64" s="188"/>
+      <c r="J64" s="189"/>
     </row>
     <row r="65" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A65" s="63" t="s">
@@ -7906,13 +7944,13 @@
         <v>63</v>
       </c>
       <c r="C66" s="127"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="104"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="104"/>
-      <c r="J66" s="105"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="104"/>
     </row>
     <row r="67" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A67" s="59">
@@ -7921,28 +7959,51 @@
       <c r="B67" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="128"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
-      <c r="H67" s="128"/>
-      <c r="I67" s="128"/>
-      <c r="J67" s="128"/>
+      <c r="C67" s="187"/>
+      <c r="D67" s="187"/>
+      <c r="E67" s="187"/>
+      <c r="F67" s="187"/>
+      <c r="G67" s="187"/>
+      <c r="H67" s="187"/>
+      <c r="I67" s="187"/>
+      <c r="J67" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J35"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C39:J39"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A15:J15"/>
@@ -7959,40 +8020,17 @@
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8045,7 +8083,7 @@
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
-      <c r="L1" s="106" t="s">
+      <c r="L1" s="118" t="s">
         <v>30</v>
       </c>
       <c r="M1" s="18"/>
@@ -8067,7 +8105,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
-      <c r="L2" s="107"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="1:18" s="41" customFormat="1" ht="12.75">
       <c r="A3" s="42"/>
@@ -8081,7 +8119,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="107"/>
+      <c r="L3" s="119"/>
     </row>
     <row r="4" spans="1:18" ht="6.75" customHeight="1">
       <c r="A4" s="27"/>

--- a/APF/RA006/RA006_APF0302_密碼還原.xlsx
+++ b/APF/RA006/RA006_APF0302_密碼還原.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -139,10 +139,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>畫面示意圖</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -234,15 +230,6 @@
   </si>
   <si>
     <t>使用者由功能清單點選密碼還原時</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查詢帳號
-1.使用者於輸入查詢條件篩選欲選取的帳號
-2.系統依查詢條件顯示資料於grid
-密碼還原
-1.選取特定帳號密碼進行密碼還原，系統回應設定成功訊息
-</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1284,7 +1271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1558,13 +1545,49 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1573,27 +1596,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1603,66 +1605,192 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1689,159 +1817,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2855,15 +2830,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>9524</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:colOff>676274</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2908,13 +2883,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>65</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6099,7 +6074,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -6107,64 +6082,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="101" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A6" s="102"/>
       <c r="B6" s="88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" thickTop="1" thickBot="1">
@@ -6320,10 +6295,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="25">
         <v>41563</v>
@@ -6454,10 +6429,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6470,17 +6445,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="118" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="M1" s="106" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M2" s="119"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M3" s="119"/>
+      <c r="M3" s="107"/>
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -6497,266 +6472,239 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="107"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119"/>
     </row>
     <row r="6" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="A6" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
     </row>
     <row r="7" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="112" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="114"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="103" t="s">
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
+    </row>
+    <row r="9" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
+    </row>
+    <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="104"/>
-    </row>
-    <row r="9" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="114"/>
-    </row>
-    <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="110" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
+    </row>
+    <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112"/>
+    </row>
+    <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A12" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="104"/>
-    </row>
-    <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="114"/>
-    </row>
-    <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A12" s="110" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
+    </row>
+    <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="112"/>
+    </row>
+    <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
+      <c r="A14" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="104"/>
-    </row>
-    <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="114"/>
-    </row>
-    <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A14" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="104"/>
-    </row>
-    <row r="15" spans="1:13" s="85" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
-    </row>
-    <row r="16" spans="1:13" s="85" customFormat="1" ht="114" customHeight="1">
-      <c r="A16" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="125"/>
-    </row>
-    <row r="17" spans="1:12" s="87" customFormat="1" ht="16.5">
-      <c r="A17" s="105" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="105"/>
+    </row>
+    <row r="15" spans="1:13" s="87" customFormat="1" ht="16.5">
+      <c r="A15" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="105"/>
+    </row>
+    <row r="16" spans="1:13" s="87" customFormat="1" ht="14.25"/>
+    <row r="17" s="87" customFormat="1" ht="14.25"/>
+    <row r="18" s="87" customFormat="1" ht="14.25"/>
+    <row r="19" s="87" customFormat="1" ht="14.25"/>
+    <row r="20" s="87" customFormat="1" ht="14.25"/>
+    <row r="21" s="87" customFormat="1" ht="14.25"/>
+    <row r="22" s="87" customFormat="1" ht="14.25"/>
+    <row r="23" s="87" customFormat="1" ht="14.25"/>
+    <row r="24" s="87" customFormat="1" ht="14.25"/>
+    <row r="25" s="87" customFormat="1" ht="14.25"/>
+    <row r="26" s="87" customFormat="1" ht="14.25"/>
+    <row r="27" s="87" customFormat="1" ht="14.25"/>
+    <row r="30" ht="27" customHeight="1"/>
+    <row r="41" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A41" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-    </row>
-    <row r="18" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="19" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="20" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="21" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="22" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="23" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="24" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="25" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="26" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="27" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="28" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="29" spans="1:12" s="87" customFormat="1" ht="14.25"/>
-    <row r="32" spans="1:12" ht="27" customHeight="1"/>
-    <row r="43" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A43" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="104"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A43:L43"/>
+  <mergeCells count="21">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A41:L41"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A15:L15"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -6765,13 +6713,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6791,15 +6732,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6817,13 +6758,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>65</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
@@ -6849,15 +6790,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="118" t="s">
-        <v>139</v>
+      <c r="P1" s="106" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="119"/>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="119"/>
+      <c r="P3" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6938,8 +6879,8 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="118" t="s">
-        <v>30</v>
+      <c r="K1" s="106" t="s">
+        <v>29</v>
       </c>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -6959,7 +6900,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="119"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
       <c r="A3" s="7"/>
@@ -6972,7 +6913,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="119"/>
+      <c r="K3" s="107"/>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1">
       <c r="A4" s="7"/>
@@ -6987,646 +6928,646 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="14.25">
-      <c r="A5" s="157" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="159"/>
+      <c r="A5" s="166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:17" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="160"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="162"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:17" s="20" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="178"/>
     </row>
     <row r="10" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="112"/>
+    </row>
+    <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
+      <c r="A11" s="179" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
+    </row>
+    <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-    </row>
-    <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="170" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
+    </row>
+    <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
-    </row>
-    <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="156" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
+    </row>
+    <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-    </row>
-    <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="170" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
-    </row>
-    <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="156" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
     </row>
     <row r="15" spans="1:17" s="43" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
+      <c r="A15" s="162" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="164"/>
     </row>
     <row r="16" spans="1:17" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="137"/>
+        <v>43</v>
+      </c>
+      <c r="C16" s="153" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="155"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1">
       <c r="A17" s="83">
         <v>1</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="171" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
+        <v>65</v>
+      </c>
+      <c r="C17" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A18" s="83">
         <v>2</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="171" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
+        <v>70</v>
+      </c>
+      <c r="C18" s="125" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="74">
         <v>3</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="171" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
+        <v>103</v>
+      </c>
+      <c r="C19" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="76">
         <v>4</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="171" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+        <v>102</v>
+      </c>
+      <c r="C20" s="125" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A21" s="127"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="129"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="131"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A22" s="130" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
+      <c r="A22" s="162" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="164"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="137"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A24" s="45">
         <v>1</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="45">
         <v>2</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
+        <v>72</v>
+      </c>
+      <c r="C25" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="45">
         <v>3</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+        <v>69</v>
+      </c>
+      <c r="C26" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="45">
         <v>4</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
+        <v>71</v>
+      </c>
+      <c r="C27" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A28" s="147"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="149"/>
+      <c r="A28" s="180"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="182"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="153" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
+      <c r="A29" s="157" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="161"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A30" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="134"/>
+      <c r="A30" s="162" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="164"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="137"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="155"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A32" s="45">
         <v>1</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="138" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="140"/>
+        <v>86</v>
+      </c>
+      <c r="C32" s="185" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="187"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A33" s="45">
         <v>2</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="143"/>
+        <v>100</v>
+      </c>
+      <c r="C33" s="188"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="190"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A34" s="45">
         <v>3</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="143"/>
+        <v>67</v>
+      </c>
+      <c r="C34" s="188"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="190"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A35" s="45">
         <v>4</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="146"/>
+        <v>101</v>
+      </c>
+      <c r="C35" s="191"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="193"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A36" s="127"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="129"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="131"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A37" s="130" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="131"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="132"/>
+      <c r="A37" s="162" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="184"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="137"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="155"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A39" s="45">
         <v>1</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="152"/>
+        <v>68</v>
+      </c>
+      <c r="C39" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="127"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A40" s="45">
         <v>2</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="152"/>
+        <v>72</v>
+      </c>
+      <c r="C40" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="127"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A41" s="45">
         <v>3</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="152"/>
+        <v>69</v>
+      </c>
+      <c r="C41" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="127"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A42" s="45">
         <v>4</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="150" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="156" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="127"/>
+    </row>
+    <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
+      <c r="A43" s="123"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="131"/>
+    </row>
+    <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="152"/>
-    </row>
-    <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A43" s="127"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="129"/>
-    </row>
-    <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="178"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="179"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="158"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="158"/>
+      <c r="H44" s="158"/>
+      <c r="I44" s="158"/>
+      <c r="J44" s="159"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="E45" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="172" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="173"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="149"/>
       <c r="K45" s="43"/>
       <c r="L45" s="43"/>
     </row>
@@ -7635,296 +7576,296 @@
         <v>1</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
-      <c r="E46" s="174" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
+      <c r="E46" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
     </row>
     <row r="47" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A47" s="52"/>
-      <c r="B47" s="128"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="129"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="131"/>
     </row>
     <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A48" s="175" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="176"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="176"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="177"/>
+      <c r="A48" s="150" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="152"/>
     </row>
     <row r="49" spans="1:10" s="44" customFormat="1" ht="77.25" customHeight="1">
       <c r="A49" s="59">
         <v>1</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="58"/>
-      <c r="E49" s="180" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="181"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="181"/>
-      <c r="I49" s="181"/>
-      <c r="J49" s="182"/>
+      <c r="E49" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="130"/>
     </row>
     <row r="50" spans="1:10" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A50" s="56">
         <v>2</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" s="58"/>
-      <c r="E50" s="180" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181"/>
-      <c r="J50" s="182"/>
+      <c r="E50" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="129"/>
+      <c r="G50" s="129"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="130"/>
     </row>
     <row r="51" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A51" s="59">
         <v>3</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51" s="60"/>
-      <c r="E51" s="183" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="104"/>
+      <c r="E51" s="132" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A52" s="61"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="129"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="131"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A53" s="184" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="185"/>
-      <c r="C53" s="185"/>
-      <c r="D53" s="185"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="185"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="185"/>
-      <c r="I53" s="185"/>
-      <c r="J53" s="186"/>
+      <c r="A53" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="146"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A54" s="45">
         <v>1</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
+      <c r="E54" s="147" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A55" s="45">
         <v>2</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D55" s="58"/>
-      <c r="E55" s="180" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="181"/>
-      <c r="G55" s="181"/>
-      <c r="H55" s="181"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="182"/>
+      <c r="E55" s="128" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="130"/>
     </row>
     <row r="56" spans="1:10" s="43" customFormat="1" ht="84" customHeight="1">
       <c r="A56" s="45">
         <v>3</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56" s="58"/>
-      <c r="E56" s="180" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56" s="181"/>
-      <c r="G56" s="181"/>
-      <c r="H56" s="181"/>
-      <c r="I56" s="181"/>
-      <c r="J56" s="182"/>
+      <c r="E56" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="130"/>
     </row>
     <row r="57" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A57" s="62"/>
-      <c r="B57" s="128"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="128"/>
-      <c r="J57" s="129"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="131"/>
     </row>
     <row r="58" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="193" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="194"/>
-      <c r="C58" s="194"/>
-      <c r="D58" s="194"/>
-      <c r="E58" s="194"/>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="194"/>
-      <c r="I58" s="194"/>
-      <c r="J58" s="195"/>
+      <c r="A58" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="139"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="140"/>
     </row>
     <row r="59" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="196" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="197"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="104"/>
+        <v>42</v>
+      </c>
+      <c r="B59" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="142"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="105"/>
     </row>
     <row r="60" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="190"/>
-      <c r="B60" s="191"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="191"/>
-      <c r="E60" s="191"/>
-      <c r="F60" s="191"/>
-      <c r="G60" s="191"/>
-      <c r="H60" s="191"/>
-      <c r="I60" s="191"/>
-      <c r="J60" s="192"/>
+      <c r="A60" s="135"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="136"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="136"/>
+      <c r="J60" s="137"/>
     </row>
     <row r="61" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="59"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="183"/>
-      <c r="E61" s="188"/>
-      <c r="F61" s="188"/>
-      <c r="G61" s="188"/>
-      <c r="H61" s="188"/>
-      <c r="I61" s="188"/>
-      <c r="J61" s="189"/>
+      <c r="B61" s="123"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="133"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="134"/>
     </row>
     <row r="62" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="59"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="183"/>
-      <c r="E62" s="188"/>
-      <c r="F62" s="188"/>
-      <c r="G62" s="188"/>
-      <c r="H62" s="188"/>
-      <c r="I62" s="188"/>
-      <c r="J62" s="189"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="134"/>
     </row>
     <row r="63" spans="1:10" s="43" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="190"/>
-      <c r="B63" s="191"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="191"/>
-      <c r="E63" s="191"/>
-      <c r="F63" s="191"/>
-      <c r="G63" s="191"/>
-      <c r="H63" s="191"/>
-      <c r="I63" s="191"/>
-      <c r="J63" s="192"/>
+      <c r="A63" s="135"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="136"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="137"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="59"/>
-      <c r="B64" s="127"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="183"/>
-      <c r="E64" s="188"/>
-      <c r="F64" s="188"/>
-      <c r="G64" s="188"/>
-      <c r="H64" s="188"/>
-      <c r="I64" s="188"/>
-      <c r="J64" s="189"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="133"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="134"/>
     </row>
     <row r="65" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A65" s="63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" s="64"/>
       <c r="C65" s="65"/>
@@ -7941,35 +7882,80 @@
         <v>1</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="127"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="104"/>
+        <v>61</v>
+      </c>
+      <c r="C66" s="123"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="105"/>
     </row>
     <row r="67" spans="1:10" s="67" customFormat="1" ht="16.5">
       <c r="A67" s="59">
         <v>2</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="187"/>
-      <c r="D67" s="187"/>
-      <c r="E67" s="187"/>
-      <c r="F67" s="187"/>
-      <c r="G67" s="187"/>
-      <c r="H67" s="187"/>
-      <c r="I67" s="187"/>
-      <c r="J67" s="187"/>
+        <v>61</v>
+      </c>
+      <c r="C67" s="124"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J35"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="E54:J54"/>
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C20:J20"/>
@@ -7986,51 +7972,6 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:J61"/>
     <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8083,8 +8024,8 @@
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
-      <c r="L1" s="118" t="s">
-        <v>30</v>
+      <c r="L1" s="106" t="s">
+        <v>29</v>
       </c>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
@@ -8105,7 +8046,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
-      <c r="L2" s="119"/>
+      <c r="L2" s="107"/>
     </row>
     <row r="3" spans="1:18" s="41" customFormat="1" ht="12.75">
       <c r="A3" s="42"/>
@@ -8119,7 +8060,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="119"/>
+      <c r="L3" s="107"/>
     </row>
     <row r="4" spans="1:18" ht="6.75" customHeight="1">
       <c r="A4" s="27"/>
@@ -8157,18 +8098,18 @@
       <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A6" s="198" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="A6" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
       <c r="K6" s="78"/>
       <c r="L6" s="78"/>
       <c r="M6" s="78"/>
@@ -8178,19 +8119,19 @@
     </row>
     <row r="7" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A7" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="D7" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="E7" s="71" t="s">
         <v>127</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>129</v>
       </c>
       <c r="F7" s="71" t="s">
         <v>6</v>
@@ -8199,10 +8140,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>0</v>
@@ -8235,34 +8176,34 @@
       <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A10" s="198" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="202"/>
+      <c r="A10" s="194" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
     </row>
     <row r="11" spans="1:18" s="70" customFormat="1" ht="16.5">
       <c r="A11" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="D11" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="E11" s="71" t="s">
         <v>127</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>129</v>
       </c>
       <c r="F11" s="71" t="s">
         <v>6</v>
@@ -8271,10 +8212,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J11" s="71" t="s">
         <v>0</v>
@@ -8285,29 +8226,29 @@
         <v>1</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="95" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G12" s="91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J12" s="80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8315,29 +8256,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G13" s="91" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8345,29 +8286,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F14" s="95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H14" s="73"/>
       <c r="I14" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J14" s="80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="70" customFormat="1" ht="16.5">
@@ -8375,61 +8316,61 @@
         <v>4</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G15" s="94" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H15" s="73"/>
       <c r="I15" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" s="80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="70" customFormat="1" ht="16.5"/>
     <row r="17" spans="1:11" s="70" customFormat="1" ht="16.5">
-      <c r="A17" s="198" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="202"/>
+      <c r="A17" s="194" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="197"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="198"/>
     </row>
     <row r="18" spans="1:11" s="70" customFormat="1" ht="16.5">
       <c r="A18" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="D18" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="E18" s="71" t="s">
         <v>127</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>129</v>
       </c>
       <c r="F18" s="71" t="s">
         <v>6</v>
@@ -8438,10 +8379,10 @@
         <v>2</v>
       </c>
       <c r="H18" s="71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J18" s="71" t="s">
         <v>0</v>
@@ -8452,27 +8393,27 @@
         <v>1</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G19" s="91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H19" s="74"/>
       <c r="I19" s="76" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19" s="80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="70" customFormat="1" ht="16.5">
@@ -8480,20 +8421,20 @@
         <v>2</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="96" t="s">
         <v>136</v>
-      </c>
-      <c r="F20" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="96" t="s">
-        <v>138</v>
       </c>
       <c r="H20" s="74"/>
       <c r="I20" s="76">
@@ -8506,20 +8447,20 @@
         <v>3</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F21" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="74" t="s">
         <v>82</v>
-      </c>
-      <c r="G21" s="74" t="s">
-        <v>84</v>
       </c>
       <c r="H21" s="74"/>
       <c r="I21" s="76">
@@ -8532,27 +8473,27 @@
         <v>4</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G22" s="91" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H22" s="73"/>
       <c r="I22" s="76">
         <v>0</v>
       </c>
       <c r="J22" s="80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:11">

--- a/APF/RA006/RA006_APF0302_密碼還原.xlsx
+++ b/APF/RA006/RA006_APF0302_密碼還原.xlsx
@@ -295,10 +295,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>控制項名稱</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -459,10 +455,6 @@
   </si>
   <si>
     <t>APF0302MM1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0302MM1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0302MM1_Grid中</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -506,10 +498,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>查詢按鈕提供開窗選取功能，例如:員工編號可自行輸入(模糊查詢)或點選查詢按鈕，跳出員工查詢視窗，於員工查詢視窗輸入條件(員工編號或員工姓名模糊查詢)後按下確認按鈕，下方顯示查詢結果，雙擊一筆員工查詢結果，帶回員工編號與員工姓名(圖二)。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1. 主檔已建立使用者帳號及該使用者角色有此功能權限</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -583,10 +571,6 @@
   </si>
   <si>
     <t>org_id</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>position_id</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -657,22 +641,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>emp_d</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_d</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_d</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Core_Role</t>
   </si>
   <si>
@@ -703,22 +671,67 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1. 輸入型態:string，最大長度限制:英文10(控制項控制)</t>
+    <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 輸入型態:string，最大長度限制:英文20(控制項控制)</t>
+    <t>1.查詢按鈕提供開窗選取功能，例如:員工編號可自行輸入(模糊查詢)或點選查詢按鈕，跳出員工查詢視窗，於員工查詢視窗輸入條件(員工編號或員工姓名模糊查詢)後按下確認按鈕，下方顯示查詢結果，雙擊一筆員工查詢結果，帶回員工編號與員工姓名(圖二)。
+2.按下查詢按紐呼叫開窗Javascript函數Suda3G.PopupWindow()，並於開窗之畫面輸入查詢條件後點選下方資料，系統會將值帶回填入原畫面之欄位(員工編號或部門代號等)並關閉開窗功能。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 輸入型態:string，最大長度限制:英文5(控制項控制)2. </t>
+    <t>1.開啟APF0302MM1_Grid，依輸入的查詢條件，整合後端 DB資料，並將查詢結果置於APF0302MM1_Grid中
+2.呼叫AccountController.GetAccountsByFilter(string emp_id, string emp_name, string emp_department, string emp_position)並依照所輸入的查詢條件傳入並回傳JsonResult。
+3.APF0302MM1_Grid接收由2.回傳之JsonResult並顯示查詢結果。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work_id</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
+最大長度限制:中文20(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">輸入型態:string
+格式:英數字
+最大長度限制:英文5(控制項控制)2. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 02001。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>點選此按鈕後，系統回應提示確認訊息，訊息內容請參考APF訊息表 43。
 1. 若選擇是，則進行密碼還原，如成功，回到原本選取密碼還原畫面並回應成功訊息；如失敗，則顯示還原失敗訊息，仍回至原本畫面。
-，訊息內容請參考APF訊息表 2 及 5。
+，訊息內容請參考APF訊息表 APF_NO 01002 及 01005。
+1.1 呼叫AccountController.ResetPassword(string[] Sids)將所選擇之使用者帳號集合傳入，並呼叫AccountController.GetDefaultPassword()取得預設密碼以進行變更。
+註：預設密碼存放於common_parameter參數檔資料庫中，parameter_class=Account, parameter_name=DefaultPasswords, parameter_value={預設密碼}
 2. 若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1414,26 +1427,14 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1533,6 +1534,18 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,15 +1558,45 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1567,28 +1610,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1596,227 +1618,218 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2830,15 +2843,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>9524</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>676274</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2883,14 +2896,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>63</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6074,7 +6087,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -6110,40 +6123,40 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="101" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C5" s="39"/>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="86" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A6" s="102"/>
-      <c r="B6" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89" t="s">
+      <c r="B6" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="B7" s="88"/>
+      <c r="B7" s="84"/>
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickTop="1">
@@ -6429,10 +6442,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6447,15 +6460,15 @@
       <c r="A1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="106" t="s">
+      <c r="M1" s="116" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M2" s="107"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M3" s="107"/>
+      <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -6471,235 +6484,228 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="103" t="s">
+    <row r="5" spans="1:13" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
-    </row>
-    <row r="6" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="120" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="122"/>
-    </row>
-    <row r="7" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="122"/>
+    </row>
+    <row r="6" spans="1:13" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="114"/>
+    </row>
+    <row r="7" spans="1:13" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="110" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
-    </row>
-    <row r="8" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="117" t="s">
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="109"/>
+    </row>
+    <row r="8" spans="1:13" s="82" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="104" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="105"/>
-    </row>
-    <row r="9" spans="1:13" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="108" t="s">
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
+    </row>
+    <row r="9" spans="1:13" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="112"/>
-    </row>
-    <row r="10" spans="1:13" s="86" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="117" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="109"/>
+    </row>
+    <row r="10" spans="1:13" s="82" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="111"/>
     </row>
     <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="116" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="112"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="109"/>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="105"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="116" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="112"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="109"/>
     </row>
     <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="105"/>
-    </row>
-    <row r="15" spans="1:13" s="87" customFormat="1" ht="16.5">
-      <c r="A15" s="103" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+    </row>
+    <row r="15" spans="1:13" s="83" customFormat="1" ht="16.5">
+      <c r="A15" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105"/>
-    </row>
-    <row r="16" spans="1:13" s="87" customFormat="1" ht="14.25"/>
-    <row r="17" s="87" customFormat="1" ht="14.25"/>
-    <row r="18" s="87" customFormat="1" ht="14.25"/>
-    <row r="19" s="87" customFormat="1" ht="14.25"/>
-    <row r="20" s="87" customFormat="1" ht="14.25"/>
-    <row r="21" s="87" customFormat="1" ht="14.25"/>
-    <row r="22" s="87" customFormat="1" ht="14.25"/>
-    <row r="23" s="87" customFormat="1" ht="14.25"/>
-    <row r="24" s="87" customFormat="1" ht="14.25"/>
-    <row r="25" s="87" customFormat="1" ht="14.25"/>
-    <row r="26" s="87" customFormat="1" ht="14.25"/>
-    <row r="27" s="87" customFormat="1" ht="14.25"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="111"/>
+    </row>
+    <row r="16" spans="1:13" s="83" customFormat="1" ht="14.25"/>
+    <row r="17" s="83" customFormat="1" ht="14.25"/>
+    <row r="18" s="83" customFormat="1" ht="14.25"/>
+    <row r="19" s="83" customFormat="1" ht="14.25"/>
+    <row r="20" s="83" customFormat="1" ht="14.25"/>
+    <row r="21" s="83" customFormat="1" ht="14.25"/>
+    <row r="22" s="83" customFormat="1" ht="14.25"/>
+    <row r="23" s="83" customFormat="1" ht="14.25"/>
+    <row r="24" s="83" customFormat="1" ht="14.25"/>
+    <row r="25" s="83" customFormat="1" ht="14.25"/>
+    <row r="26" s="83" customFormat="1" ht="14.25"/>
+    <row r="27" s="83" customFormat="1" ht="14.25"/>
     <row r="30" ht="27" customHeight="1"/>
-    <row r="41" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A41" s="103" t="s">
+    <row r="57" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A57" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="105"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A57:L57"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -6713,6 +6719,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6739,8 +6752,8 @@
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6758,14 +6771,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>57</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6790,15 +6803,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="106" t="s">
-        <v>137</v>
+      <c r="P1" s="116" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="107"/>
+      <c r="P2" s="117"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="107"/>
+      <c r="P3" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6846,10 +6859,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56:J56"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6879,7 +6892,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="116" t="s">
         <v>29</v>
       </c>
       <c r="L1" s="18"/>
@@ -6900,7 +6913,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="107"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
       <c r="A3" s="7"/>
@@ -6913,7 +6926,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="107"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1">
       <c r="A4" s="7"/>
@@ -6928,152 +6941,152 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="14.25">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="168"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:17" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="1:17" s="20" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="178"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
     </row>
     <row r="10" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
     </row>
     <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="112"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="109"/>
     </row>
     <row r="15" spans="1:17" s="43" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="162" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
+      <c r="A15" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="130"/>
     </row>
     <row r="16" spans="1:17" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="45" t="s">
@@ -7082,114 +7095,114 @@
       <c r="B16" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="153" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="155"/>
-    </row>
-    <row r="17" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A17" s="83">
+      <c r="C16" s="131" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
+    </row>
+    <row r="17" spans="1:10" s="43" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A17" s="79">
         <v>1</v>
       </c>
-      <c r="B17" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="125" t="s">
+      <c r="B17" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="167" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="148"/>
+    </row>
+    <row r="18" spans="1:10" s="43" customFormat="1" ht="51" customHeight="1">
+      <c r="A18" s="79">
+        <v>2</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
+    </row>
+    <row r="19" spans="1:10" s="43" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A19" s="70">
+        <v>3</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="167" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="148"/>
+    </row>
+    <row r="20" spans="1:10" s="43" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A20" s="72">
+        <v>4</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="127"/>
-    </row>
-    <row r="18" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A18" s="83">
-        <v>2</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="125" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
-    </row>
-    <row r="19" spans="1:10" s="43" customFormat="1" ht="33" customHeight="1">
-      <c r="A19" s="74">
-        <v>3</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="125" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="127"/>
-    </row>
-    <row r="20" spans="1:10" s="43" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A20" s="76">
-        <v>4</v>
-      </c>
-      <c r="B20" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="125" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="127"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A21" s="123"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="131"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A22" s="162" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
+      <c r="A22" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="45" t="s">
@@ -7198,128 +7211,128 @@
       <c r="B23" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="153" t="s">
+      <c r="C23" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A24" s="45">
         <v>1</v>
       </c>
-      <c r="B24" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="156" t="s">
+      <c r="B24" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="127"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="148"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="45">
         <v>2</v>
       </c>
-      <c r="B25" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="156" t="s">
+      <c r="B25" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="148"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="45">
         <v>3</v>
       </c>
-      <c r="B26" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="156" t="s">
+      <c r="B26" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="127"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="148"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="45">
         <v>4</v>
       </c>
-      <c r="B27" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="156" t="s">
+      <c r="B27" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="127"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="148"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A28" s="180"/>
-      <c r="B28" s="181"/>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="182"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="145"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="157" t="s">
+      <c r="A29" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A30" s="162" t="s">
+      <c r="A30" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="164"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="130"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
@@ -7328,108 +7341,108 @@
       <c r="B31" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="153" t="s">
+      <c r="C31" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A32" s="45">
         <v>1</v>
       </c>
-      <c r="B32" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="185" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="187"/>
+      <c r="B32" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="136"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A33" s="45">
         <v>2</v>
       </c>
-      <c r="B33" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="188"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="190"/>
+      <c r="B33" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="137"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="139"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A34" s="45">
         <v>3</v>
       </c>
-      <c r="B34" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="190"/>
+      <c r="B34" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="137"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="139"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A35" s="45">
         <v>4</v>
       </c>
-      <c r="B35" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="191"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="193"/>
+      <c r="B35" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="140"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="142"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A36" s="123"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="131"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="125"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A37" s="162" t="s">
+      <c r="A37" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="184"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="128"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -7438,490 +7451,513 @@
       <c r="B38" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="153" t="s">
+      <c r="C38" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="155"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="133"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A39" s="45">
         <v>1</v>
       </c>
-      <c r="B39" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="156" t="s">
+      <c r="B39" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="127"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="148"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A40" s="45">
         <v>2</v>
       </c>
-      <c r="B40" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="156" t="s">
+      <c r="B40" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="127"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="148"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A41" s="45">
         <v>3</v>
       </c>
-      <c r="B41" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="156" t="s">
+      <c r="B41" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="127"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="148"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A42" s="45">
         <v>4</v>
       </c>
-      <c r="B42" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="156" t="s">
+      <c r="B42" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="127"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="148"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A43" s="123"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="131"/>
-    </row>
-    <row r="44" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="157" t="s">
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="125"/>
+    </row>
+    <row r="45" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="177"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="178"/>
+    </row>
+    <row r="46" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="158"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
-      <c r="J44" s="159"/>
-    </row>
-    <row r="45" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="46" t="s">
+      <c r="C46" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="D46" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="E46" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="148" t="s">
+      <c r="F46" s="176"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="176"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+    </row>
+    <row r="47" spans="1:12" s="43" customFormat="1" ht="33" customHeight="1">
+      <c r="A47" s="49">
+        <v>1</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="50"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="171" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+    </row>
+    <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
+      <c r="A48" s="52"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="125"/>
+    </row>
+    <row r="49" spans="1:10" s="43" customFormat="1" ht="16.5">
+      <c r="A49" s="179" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="180"/>
+      <c r="C49" s="180"/>
+      <c r="D49" s="180"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="180"/>
+      <c r="G49" s="180"/>
+      <c r="H49" s="180"/>
+      <c r="I49" s="180"/>
+      <c r="J49" s="181"/>
+    </row>
+    <row r="50" spans="1:10" s="44" customFormat="1" ht="129" customHeight="1">
+      <c r="A50" s="56">
+        <v>1</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-    </row>
-    <row r="46" spans="1:12" s="43" customFormat="1" ht="33" customHeight="1">
-      <c r="A46" s="49">
-        <v>1</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="147" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-    </row>
-    <row r="47" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A47" s="52"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="143"/>
-      <c r="J47" s="131"/>
-    </row>
-    <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A48" s="150" t="s">
+      <c r="D50" s="96"/>
+      <c r="E50" s="172" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="173"/>
+      <c r="G50" s="173"/>
+      <c r="H50" s="173"/>
+      <c r="I50" s="173"/>
+      <c r="J50" s="174"/>
+    </row>
+    <row r="51" spans="1:10" s="44" customFormat="1" ht="107.25" customHeight="1">
+      <c r="A51" s="54">
+        <v>2</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="96"/>
+      <c r="E51" s="172" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="173"/>
+      <c r="G51" s="173"/>
+      <c r="H51" s="173"/>
+      <c r="I51" s="173"/>
+      <c r="J51" s="174"/>
+    </row>
+    <row r="52" spans="1:10" s="43" customFormat="1" ht="16.5">
+      <c r="A52" s="56">
+        <v>3</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="97"/>
+      <c r="E52" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="151"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="152"/>
-    </row>
-    <row r="49" spans="1:10" s="44" customFormat="1" ht="77.25" customHeight="1">
-      <c r="A49" s="59">
-        <v>1</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="130"/>
-    </row>
-    <row r="50" spans="1:10" s="44" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A50" s="56">
-        <v>2</v>
-      </c>
-      <c r="B50" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="128" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="130"/>
-    </row>
-    <row r="51" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A51" s="59">
-        <v>3</v>
-      </c>
-      <c r="B51" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="104"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="105"/>
-    </row>
-    <row r="52" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A52" s="61"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
-      <c r="E52" s="143"/>
-      <c r="F52" s="143"/>
-      <c r="G52" s="143"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="131"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="111"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A53" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="146"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="125"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A54" s="45">
-        <v>1</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="147" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
+      <c r="A54" s="182" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="183"/>
+      <c r="C54" s="183"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="183"/>
+      <c r="F54" s="183"/>
+      <c r="G54" s="183"/>
+      <c r="H54" s="183"/>
+      <c r="I54" s="183"/>
+      <c r="J54" s="184"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A55" s="45">
+        <v>1</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="98"/>
+      <c r="E55" s="171" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+    </row>
+    <row r="56" spans="1:10" s="43" customFormat="1" ht="16.5">
+      <c r="A56" s="45">
         <v>2</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B56" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="96"/>
+      <c r="E56" s="172" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="173"/>
+      <c r="G56" s="173"/>
+      <c r="H56" s="173"/>
+      <c r="I56" s="173"/>
+      <c r="J56" s="174"/>
+    </row>
+    <row r="57" spans="1:10" s="43" customFormat="1" ht="189.75" customHeight="1">
+      <c r="A57" s="45">
+        <v>3</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="96"/>
+      <c r="E57" s="172" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="173"/>
+      <c r="G57" s="173"/>
+      <c r="H57" s="173"/>
+      <c r="I57" s="173"/>
+      <c r="J57" s="174"/>
+    </row>
+    <row r="58" spans="1:10" s="43" customFormat="1" ht="16.5">
+      <c r="A58" s="58"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="125"/>
+    </row>
+    <row r="59" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="128" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="130"/>
-    </row>
-    <row r="56" spans="1:10" s="43" customFormat="1" ht="84" customHeight="1">
-      <c r="A56" s="45">
-        <v>3</v>
-      </c>
-      <c r="B56" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="128" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="130"/>
-    </row>
-    <row r="57" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A57" s="62"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="143"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="131"/>
-    </row>
-    <row r="58" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="138" t="s">
+      <c r="B59" s="186"/>
+      <c r="C59" s="186"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="186"/>
+      <c r="G59" s="186"/>
+      <c r="H59" s="186"/>
+      <c r="I59" s="186"/>
+      <c r="J59" s="187"/>
+    </row>
+    <row r="60" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="139"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="140"/>
-    </row>
-    <row r="59" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="141" t="s">
+      <c r="C60" s="189"/>
+      <c r="D60" s="168"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="111"/>
+    </row>
+    <row r="61" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="190"/>
+      <c r="B61" s="191"/>
+      <c r="C61" s="191"/>
+      <c r="D61" s="191"/>
+      <c r="E61" s="191"/>
+      <c r="F61" s="191"/>
+      <c r="G61" s="191"/>
+      <c r="H61" s="191"/>
+      <c r="I61" s="191"/>
+      <c r="J61" s="192"/>
+    </row>
+    <row r="62" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="56"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="170"/>
+    </row>
+    <row r="63" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="56"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="169"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="170"/>
+    </row>
+    <row r="64" spans="1:10" s="43" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A64" s="190"/>
+      <c r="B64" s="191"/>
+      <c r="C64" s="191"/>
+      <c r="D64" s="191"/>
+      <c r="E64" s="191"/>
+      <c r="F64" s="191"/>
+      <c r="G64" s="191"/>
+      <c r="H64" s="191"/>
+      <c r="I64" s="191"/>
+      <c r="J64" s="192"/>
+    </row>
+    <row r="65" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="56"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="168"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="169"/>
+      <c r="G65" s="169"/>
+      <c r="H65" s="169"/>
+      <c r="I65" s="169"/>
+      <c r="J65" s="170"/>
+    </row>
+    <row r="66" spans="1:10" s="63" customFormat="1" ht="16.5">
+      <c r="A66" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="142"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="105"/>
-    </row>
-    <row r="60" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="135"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="136"/>
-      <c r="G60" s="136"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="136"/>
-      <c r="J60" s="137"/>
-    </row>
-    <row r="61" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="123"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="133"/>
-      <c r="F61" s="133"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="134"/>
-    </row>
-    <row r="62" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="59"/>
-      <c r="B62" s="123"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="134"/>
-    </row>
-    <row r="63" spans="1:10" s="43" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="135"/>
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="136"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
-      <c r="J63" s="137"/>
-    </row>
-    <row r="64" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="59"/>
-      <c r="B64" s="123"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="133"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="134"/>
-    </row>
-    <row r="65" spans="1:10" s="67" customFormat="1" ht="16.5">
-      <c r="A65" s="63" t="s">
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="62"/>
+    </row>
+    <row r="67" spans="1:10" s="63" customFormat="1" ht="16.5">
+      <c r="A67" s="56">
+        <v>1</v>
+      </c>
+      <c r="B67" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="64"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="66"/>
-    </row>
-    <row r="66" spans="1:10" s="67" customFormat="1" ht="16.5">
-      <c r="A66" s="59">
-        <v>1</v>
-      </c>
-      <c r="B66" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="123"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="104"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="104"/>
-      <c r="J66" s="105"/>
-    </row>
-    <row r="67" spans="1:10" s="67" customFormat="1" ht="16.5">
-      <c r="A67" s="59">
+      <c r="C67" s="123"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="110"/>
+      <c r="I67" s="110"/>
+      <c r="J67" s="111"/>
+    </row>
+    <row r="68" spans="1:10" s="63" customFormat="1" ht="16.5">
+      <c r="A68" s="56">
         <v>2</v>
       </c>
-      <c r="B67" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="124"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="124"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="124"/>
+      <c r="B68" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="193"/>
+      <c r="D68" s="193"/>
+      <c r="E68" s="193"/>
+      <c r="F68" s="193"/>
+      <c r="G68" s="193"/>
+      <c r="H68" s="193"/>
+      <c r="I68" s="193"/>
+      <c r="J68" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J35"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="B48:J48"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A15:J15"/>
@@ -7938,40 +7974,17 @@
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7994,7 +8007,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:G22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8024,7 +8037,7 @@
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
-      <c r="L1" s="106" t="s">
+      <c r="L1" s="116" t="s">
         <v>29</v>
       </c>
       <c r="M1" s="18"/>
@@ -8046,7 +8059,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
-      <c r="L2" s="107"/>
+      <c r="L2" s="117"/>
     </row>
     <row r="3" spans="1:18" s="41" customFormat="1" ht="12.75">
       <c r="A3" s="42"/>
@@ -8060,7 +8073,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="107"/>
+      <c r="L3" s="117"/>
     </row>
     <row r="4" spans="1:18" ht="6.75" customHeight="1">
       <c r="A4" s="27"/>
@@ -8097,7 +8110,7 @@
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
     </row>
-    <row r="6" spans="1:18" s="70" customFormat="1" ht="16.5">
+    <row r="6" spans="1:18" s="66" customFormat="1" ht="16.5">
       <c r="A6" s="194" t="s">
         <v>17</v>
       </c>
@@ -8110,74 +8123,74 @@
       <c r="H6" s="195"/>
       <c r="I6" s="195"/>
       <c r="J6" s="196"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-    </row>
-    <row r="7" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A7" s="71" t="s">
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+    </row>
+    <row r="7" spans="1:18" s="66" customFormat="1" ht="16.5">
+      <c r="A7" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="F7" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="I7" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="67" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A8" s="76">
+    <row r="8" spans="1:18" s="66" customFormat="1" ht="16.5">
+      <c r="A8" s="72">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-    </row>
-    <row r="10" spans="1:18" s="70" customFormat="1" ht="16.5">
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+    </row>
+    <row r="9" spans="1:18" s="66" customFormat="1" ht="16.5">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="1:18" s="66" customFormat="1" ht="16.5">
       <c r="A10" s="194" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="197"/>
       <c r="C10" s="197"/>
@@ -8189,162 +8202,162 @@
       <c r="I10" s="197"/>
       <c r="J10" s="198"/>
     </row>
-    <row r="11" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:18" s="66" customFormat="1" ht="16.5">
+      <c r="A11" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="F11" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="I11" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="71" t="s">
+      <c r="J11" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="66" customFormat="1" ht="16.5">
+      <c r="A12" s="68">
+        <v>1</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="70"/>
+      <c r="I12" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="66" customFormat="1" ht="16.5">
+      <c r="A13" s="68">
         <v>2</v>
       </c>
-      <c r="H11" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="71" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A12" s="72">
-        <v>1</v>
-      </c>
-      <c r="B12" s="70" t="s">
+      <c r="B13" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="70"/>
+      <c r="I13" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="95" t="s">
+      <c r="J13" s="76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="66" customFormat="1" ht="16.5">
+      <c r="A14" s="72">
+        <v>3</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="69"/>
+      <c r="I14" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="66" customFormat="1" ht="16.5">
+      <c r="A15" s="72">
+        <v>4</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A13" s="72">
-        <v>2</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A14" s="76">
-        <v>3</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="70" customFormat="1" ht="16.5">
-      <c r="A15" s="76">
-        <v>4</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="70" customFormat="1" ht="16.5"/>
-    <row r="17" spans="1:11" s="70" customFormat="1" ht="16.5">
+      <c r="H15" s="69"/>
+      <c r="I15" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="66" customFormat="1" ht="16.5"/>
+    <row r="17" spans="1:11" s="66" customFormat="1" ht="16.5">
       <c r="A17" s="194" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="197"/>
       <c r="C17" s="197"/>
@@ -8356,144 +8369,144 @@
       <c r="I17" s="197"/>
       <c r="J17" s="198"/>
     </row>
-    <row r="18" spans="1:11" s="70" customFormat="1" ht="16.5">
-      <c r="A18" s="71" t="s">
+    <row r="18" spans="1:11" s="66" customFormat="1" ht="16.5">
+      <c r="A18" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="F18" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="I18" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="J18" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="66" customFormat="1" ht="16.5">
+      <c r="A19" s="68">
+        <v>1</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="70"/>
+      <c r="I19" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="66" customFormat="1" ht="16.5">
+      <c r="A20" s="68">
+        <v>2</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="F20" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="71" t="s">
+      <c r="G20" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="71" t="s">
+      <c r="H20" s="70"/>
+      <c r="I20" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="70" customFormat="1" ht="16.5">
-      <c r="A19" s="72">
-        <v>1</v>
-      </c>
-      <c r="B19" s="69" t="s">
+      <c r="J20" s="78"/>
+    </row>
+    <row r="21" spans="1:11" s="66" customFormat="1" ht="16.5">
+      <c r="A21" s="68">
+        <v>3</v>
+      </c>
+      <c r="B21" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C21" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="91" t="s">
+      <c r="F21" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="70"/>
+      <c r="I21" s="72">
+        <v>0</v>
+      </c>
+      <c r="J21" s="78"/>
+    </row>
+    <row r="22" spans="1:11" s="66" customFormat="1" ht="16.5">
+      <c r="A22" s="72">
+        <v>4</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="69"/>
+      <c r="I22" s="72">
+        <v>0</v>
+      </c>
+      <c r="J22" s="76" t="s">
         <v>109</v>
-      </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="70" customFormat="1" ht="16.5">
-      <c r="A20" s="72">
-        <v>2</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="76">
-        <v>0</v>
-      </c>
-      <c r="J20" s="82"/>
-    </row>
-    <row r="21" spans="1:11" s="70" customFormat="1" ht="16.5">
-      <c r="A21" s="72">
-        <v>3</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="76">
-        <v>0</v>
-      </c>
-      <c r="J21" s="82"/>
-    </row>
-    <row r="22" spans="1:11" s="70" customFormat="1" ht="16.5">
-      <c r="A22" s="76">
-        <v>4</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="76">
-        <v>0</v>
-      </c>
-      <c r="J22" s="80" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:11">

--- a/APF/RA006/RA006_APF0302_密碼還原.xlsx
+++ b/APF/RA006/RA006_APF0302_密碼還原.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="231">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -526,22 +526,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">APF0302MM1_Query
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：該欄位輸入後</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>畫面_APF0302MM1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -710,17 +694,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">輸入型態:string
-格式:英數字
-最大長度限制:英文5(控制項控制)2. </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 02001。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>點選此按鈕後，系統回應提示確認訊息，訊息內容請參考APF訊息表 43。
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文5(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0302MM1_Query
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：離開欄位時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>點選此按鈕後，系統回應提示確認訊息，訊息內容請參考APF訊息表 APF_NO 01010。
 1. 若選擇是，則進行密碼還原，如成功，回到原本選取密碼還原畫面並回應成功訊息；如失敗，則顯示還原失敗訊息，仍回至原本畫面。
 ，訊息內容請參考APF訊息表 APF_NO 01002 及 01005。
 1.1 呼叫AccountController.ResetPassword(string[] Sids)將所選擇之使用者帳號集合傳入，並呼叫AccountController.GetDefaultPassword()取得預設密碼以進行變更。
@@ -729,10 +735,336 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-格式:英數字
-最大長度限制:英文10(控制項控制)</t>
-    <phoneticPr fontId="2"/>
+    <t>APF0001MM1_common_parameter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別key</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_parameter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_id</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK，流水號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>參數類別</t>
+  </si>
+  <si>
+    <t>common_parameter</t>
+  </si>
+  <si>
+    <t>parameter_class</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>參數名稱</t>
+  </si>
+  <si>
+    <t>parameter_name</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(255)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>參數值</t>
+  </si>
+  <si>
+    <t>parameter_value</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>參數說明</t>
+  </si>
+  <si>
+    <t>parameter_desrciption</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄日期</t>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>啟用/停用</t>
+  </si>
+  <si>
+    <t>enable_flag</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_ORG_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_ORG_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_name</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位代號-單位名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_ID_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 35</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_org_unique.org_id + '-' + vw_org_unique.org_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>對應Table Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtSUDA_WORK_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work_id</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001~S0009</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtSUDA_WORK_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work</t>
+  </si>
+  <si>
+    <t>suda_work_name</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱不可重複</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱代號-權限職稱名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUDA_WORK_ID_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 60</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work.suda_work_id + '-' + suda_work.suda_work_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_EMP_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_EMP_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號-單員工姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_ID_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique.emp_id + '-' + vw_emp_unique.emp_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 查詢「單位代號/單位名稱」開窗選取功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 查詢「職稱代號/職稱名稱」開窗選取功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5 查詢「員工編號/員工姓名」開窗選取功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1284,7 +1616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1546,6 +1878,9 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1558,32 +1893,56 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1594,63 +1953,192 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1677,165 +2165,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6086,12 +6439,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="35" t="s">
@@ -6123,22 +6476,22 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>131</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="102" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="86" t="s">
@@ -6146,9 +6499,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="102"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="85" t="s">
@@ -6444,7 +6797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
@@ -6460,15 +6813,15 @@
       <c r="A1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="116" t="s">
+      <c r="M1" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M2" s="117"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="M3" s="117"/>
+      <c r="M3" s="108"/>
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -6485,194 +6838,194 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="122"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="120"/>
     </row>
     <row r="6" spans="1:13" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="114"/>
+      <c r="A6" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
     </row>
     <row r="7" spans="1:13" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="107" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="109"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="113"/>
     </row>
     <row r="8" spans="1:13" s="82" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="110" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="1:13" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="107" t="s">
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="109"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="113"/>
     </row>
     <row r="10" spans="1:13" s="82" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="110" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="106"/>
     </row>
     <row r="11" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="120" t="s">
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="109"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="113"/>
     </row>
     <row r="12" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="106"/>
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="120" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="109"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="113"/>
     </row>
     <row r="14" spans="1:13" s="44" customFormat="1" ht="16.5">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="110" t="s">
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="111"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="106"/>
     </row>
     <row r="15" spans="1:13" s="83" customFormat="1" ht="16.5">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="111"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="106"/>
     </row>
     <row r="16" spans="1:13" s="83" customFormat="1" ht="14.25"/>
     <row r="17" s="83" customFormat="1" ht="14.25"/>
@@ -6688,23 +7041,28 @@
     <row r="27" s="83" customFormat="1" ht="14.25"/>
     <row r="30" ht="27" customHeight="1"/>
     <row r="57" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="110"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="110"/>
-      <c r="L57" s="111"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
@@ -6721,11 +7079,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6803,15 +7156,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="116" t="s">
-        <v>129</v>
+      <c r="P1" s="107" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="117"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="117"/>
+      <c r="P3" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6861,8 +7214,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:J17"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6892,7 +7245,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="107" t="s">
         <v>29</v>
       </c>
       <c r="L1" s="18"/>
@@ -6913,7 +7266,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="117"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1">
       <c r="A3" s="7"/>
@@ -6926,7 +7279,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="117"/>
+      <c r="K3" s="108"/>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1">
       <c r="A4" s="7"/>
@@ -6941,152 +7294,152 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="14.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:17" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="156"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="1:17" s="20" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:17" s="20" customFormat="1">
-      <c r="A8" s="159"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
     </row>
     <row r="11" spans="1:17" s="44" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
     </row>
     <row r="12" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="113"/>
     </row>
     <row r="13" spans="1:17" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="106"/>
     </row>
     <row r="14" spans="1:17" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="109"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
     </row>
     <row r="15" spans="1:17" s="43" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="130"/>
+      <c r="A15" s="163" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:17" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="45" t="s">
@@ -7095,16 +7448,16 @@
       <c r="B16" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="156"/>
     </row>
     <row r="17" spans="1:10" s="43" customFormat="1" ht="57.75" customHeight="1">
       <c r="A17" s="79">
@@ -7113,16 +7466,16 @@
       <c r="B17" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="167" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="148"/>
+      <c r="C17" s="148" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:10" s="43" customFormat="1" ht="51" customHeight="1">
       <c r="A18" s="79">
@@ -7131,16 +7484,16 @@
       <c r="B18" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="167" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="148"/>
+      <c r="C18" s="148" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="1:10" s="43" customFormat="1" ht="57.75" customHeight="1">
       <c r="A19" s="70">
@@ -7149,16 +7502,16 @@
       <c r="B19" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="167" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148"/>
+      <c r="C19" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="1:10" s="43" customFormat="1" ht="53.25" customHeight="1">
       <c r="A20" s="72">
@@ -7167,42 +7520,42 @@
       <c r="B20" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="167" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="C20" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A21" s="123"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="126"/>
     </row>
     <row r="22" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A22" s="126" t="s">
+      <c r="A22" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="165"/>
     </row>
     <row r="23" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="45" t="s">
@@ -7211,16 +7564,16 @@
       <c r="B23" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="133"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A24" s="45">
@@ -7229,16 +7582,16 @@
       <c r="B24" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="148"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="25" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A25" s="45">
@@ -7247,16 +7600,16 @@
       <c r="B25" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="146" t="s">
+      <c r="C25" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="148"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
     </row>
     <row r="26" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A26" s="45">
@@ -7265,16 +7618,16 @@
       <c r="B26" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="146" t="s">
+      <c r="C26" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="148"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
     </row>
     <row r="27" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A27" s="45">
@@ -7283,56 +7636,56 @@
       <c r="B27" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="148"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
     </row>
     <row r="28" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="145"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="183"/>
     </row>
     <row r="29" spans="1:10" s="43" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="151"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="162"/>
     </row>
     <row r="30" spans="1:10" s="43" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="130"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="45" t="s">
@@ -7341,16 +7694,16 @@
       <c r="B31" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="133"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="156"/>
     </row>
     <row r="32" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A32" s="45">
@@ -7359,16 +7712,16 @@
       <c r="B32" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="134" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="136"/>
+      <c r="C32" s="186" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="188"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A33" s="45">
@@ -7377,14 +7730,14 @@
       <c r="B33" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="137"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="139"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="191"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A34" s="45">
@@ -7393,14 +7746,14 @@
       <c r="B34" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="137"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="139"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="191"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A35" s="45">
@@ -7409,40 +7762,40 @@
       <c r="B35" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="142"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="193"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="193"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="194"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A36" s="123"/>
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="125"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="126"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A37" s="126" t="s">
+      <c r="A37" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="128"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="185"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="45" t="s">
@@ -7451,16 +7804,16 @@
       <c r="B38" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="133"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="156"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A39" s="45">
@@ -7469,16 +7822,16 @@
       <c r="B39" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="148"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="150"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A40" s="45">
@@ -7487,16 +7840,16 @@
       <c r="B40" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="146" t="s">
+      <c r="C40" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="148"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="150"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A41" s="45">
@@ -7505,16 +7858,16 @@
       <c r="B41" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="148"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="150"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A42" s="45">
@@ -7523,42 +7876,42 @@
       <c r="B42" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="148"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="150"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5">
-      <c r="A43" s="123"/>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="125"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="126"/>
     </row>
     <row r="45" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="149" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="177"/>
-      <c r="J45" s="178"/>
+      <c r="A45" s="158" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="159"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="160"/>
     </row>
     <row r="46" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="46" t="s">
@@ -7573,14 +7926,14 @@
       <c r="D46" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="175" t="s">
+      <c r="E46" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="176"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="176"/>
-      <c r="J46" s="176"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
       <c r="K46" s="43"/>
       <c r="L46" s="43"/>
     </row>
@@ -7593,40 +7946,40 @@
       </c>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
-      <c r="E47" s="171" t="s">
+      <c r="E47" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
     </row>
     <row r="48" spans="1:12" s="43" customFormat="1" ht="16.5">
       <c r="A48" s="52"/>
-      <c r="B48" s="124"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="125"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="126"/>
     </row>
     <row r="49" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A49" s="179" t="s">
+      <c r="A49" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="180"/>
-      <c r="C49" s="180"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="180"/>
-      <c r="F49" s="180"/>
-      <c r="G49" s="180"/>
-      <c r="H49" s="180"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="181"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="140"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="141"/>
     </row>
     <row r="50" spans="1:10" s="44" customFormat="1" ht="129" customHeight="1">
       <c r="A50" s="56">
@@ -7639,14 +7992,14 @@
         <v>52</v>
       </c>
       <c r="D50" s="96"/>
-      <c r="E50" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="173"/>
-      <c r="G50" s="173"/>
-      <c r="H50" s="173"/>
-      <c r="I50" s="173"/>
-      <c r="J50" s="174"/>
+      <c r="E50" s="145" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="146"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="146"/>
+      <c r="I50" s="146"/>
+      <c r="J50" s="147"/>
     </row>
     <row r="51" spans="1:10" s="44" customFormat="1" ht="107.25" customHeight="1">
       <c r="A51" s="54">
@@ -7659,14 +8012,14 @@
         <v>52</v>
       </c>
       <c r="D51" s="96"/>
-      <c r="E51" s="172" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" s="173"/>
-      <c r="G51" s="173"/>
-      <c r="H51" s="173"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="174"/>
+      <c r="E51" s="145" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="146"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="147"/>
     </row>
     <row r="52" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A52" s="56">
@@ -7679,40 +8032,40 @@
         <v>52</v>
       </c>
       <c r="D52" s="97"/>
-      <c r="E52" s="168" t="s">
+      <c r="E52" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="110"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="111"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="106"/>
     </row>
     <row r="53" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A53" s="57"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="126"/>
     </row>
     <row r="54" spans="1:10" s="43" customFormat="1" ht="16.5">
-      <c r="A54" s="182" t="s">
+      <c r="A54" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="183"/>
-      <c r="C54" s="183"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="183"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="184"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="143"/>
+      <c r="J54" s="144"/>
     </row>
     <row r="55" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A55" s="45">
@@ -7725,14 +8078,14 @@
         <v>52</v>
       </c>
       <c r="D55" s="98"/>
-      <c r="E55" s="171" t="s">
+      <c r="E55" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="118"/>
     </row>
     <row r="56" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A56" s="45">
@@ -7745,16 +8098,16 @@
         <v>52</v>
       </c>
       <c r="D56" s="96"/>
-      <c r="E56" s="172" t="s">
+      <c r="E56" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="173"/>
-      <c r="J56" s="174"/>
-    </row>
-    <row r="57" spans="1:10" s="43" customFormat="1" ht="189.75" customHeight="1">
+      <c r="F56" s="146"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
+      <c r="J56" s="147"/>
+    </row>
+    <row r="57" spans="1:10" s="43" customFormat="1" ht="203.25" customHeight="1">
       <c r="A57" s="45">
         <v>3</v>
       </c>
@@ -7765,116 +8118,116 @@
         <v>52</v>
       </c>
       <c r="D57" s="96"/>
-      <c r="E57" s="172" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="174"/>
+      <c r="E57" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="146"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
+      <c r="J57" s="147"/>
     </row>
     <row r="58" spans="1:10" s="43" customFormat="1" ht="16.5">
       <c r="A58" s="58"/>
-      <c r="B58" s="124"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="125"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="126"/>
     </row>
     <row r="59" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="185" t="s">
+      <c r="A59" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="186"/>
-      <c r="C59" s="186"/>
-      <c r="D59" s="186"/>
-      <c r="E59" s="186"/>
-      <c r="F59" s="186"/>
-      <c r="G59" s="186"/>
-      <c r="H59" s="186"/>
-      <c r="I59" s="186"/>
-      <c r="J59" s="187"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
+      <c r="J59" s="136"/>
     </row>
     <row r="60" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="188" t="s">
+      <c r="B60" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="189"/>
-      <c r="D60" s="168"/>
-      <c r="E60" s="110"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="110"/>
-      <c r="I60" s="110"/>
-      <c r="J60" s="111"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="106"/>
     </row>
     <row r="61" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="190"/>
-      <c r="B61" s="191"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="191"/>
-      <c r="E61" s="191"/>
-      <c r="F61" s="191"/>
-      <c r="G61" s="191"/>
-      <c r="H61" s="191"/>
-      <c r="I61" s="191"/>
-      <c r="J61" s="192"/>
+      <c r="A61" s="130"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="131"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="132"/>
     </row>
     <row r="62" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="56"/>
-      <c r="B62" s="123"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="170"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="128"/>
+      <c r="J62" s="129"/>
     </row>
     <row r="63" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="56"/>
-      <c r="B63" s="123"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="168"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="169"/>
-      <c r="H63" s="169"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="170"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="128"/>
+      <c r="J63" s="129"/>
     </row>
     <row r="64" spans="1:10" s="43" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="190"/>
-      <c r="B64" s="191"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="191"/>
-      <c r="E64" s="191"/>
-      <c r="F64" s="191"/>
-      <c r="G64" s="191"/>
-      <c r="H64" s="191"/>
-      <c r="I64" s="191"/>
-      <c r="J64" s="192"/>
+      <c r="A64" s="130"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="131"/>
+      <c r="J64" s="132"/>
     </row>
     <row r="65" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="56"/>
-      <c r="B65" s="123"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="168"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="169"/>
-      <c r="G65" s="169"/>
-      <c r="H65" s="169"/>
-      <c r="I65" s="169"/>
-      <c r="J65" s="170"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="128"/>
+      <c r="F65" s="128"/>
+      <c r="G65" s="128"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="128"/>
+      <c r="J65" s="129"/>
     </row>
     <row r="66" spans="1:10" s="63" customFormat="1" ht="16.5">
       <c r="A66" s="59" t="s">
@@ -7897,14 +8250,14 @@
       <c r="B67" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="123"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="110"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
-      <c r="H67" s="110"/>
-      <c r="I67" s="110"/>
-      <c r="J67" s="111"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="106"/>
     </row>
     <row r="68" spans="1:10" s="63" customFormat="1" ht="16.5">
       <c r="A68" s="56">
@@ -7913,34 +8266,45 @@
       <c r="B68" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="193"/>
-      <c r="D68" s="193"/>
-      <c r="E68" s="193"/>
-      <c r="F68" s="193"/>
-      <c r="G68" s="193"/>
-      <c r="H68" s="193"/>
-      <c r="I68" s="193"/>
-      <c r="J68" s="193"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="124"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="124"/>
+      <c r="J68" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J35"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:J62"/>
@@ -7957,34 +8321,23 @@
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="E47:J47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J35"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="C67:J67"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8004,10 +8357,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8037,7 +8390,7 @@
       <c r="I1" s="42"/>
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
-      <c r="L1" s="116" t="s">
+      <c r="L1" s="107" t="s">
         <v>29</v>
       </c>
       <c r="M1" s="18"/>
@@ -8059,7 +8412,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
-      <c r="L2" s="117"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:18" s="41" customFormat="1" ht="12.75">
       <c r="A3" s="42"/>
@@ -8073,7 +8426,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="117"/>
+      <c r="L3" s="108"/>
     </row>
     <row r="4" spans="1:18" ht="6.75" customHeight="1">
       <c r="A4" s="27"/>
@@ -8111,18 +8464,18 @@
       <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:18" s="66" customFormat="1" ht="16.5">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="196"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
       <c r="M6" s="74"/>
@@ -8132,19 +8485,19 @@
     </row>
     <row r="7" spans="1:18" s="66" customFormat="1" ht="16.5">
       <c r="A7" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="C7" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="D7" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="E7" s="67" t="s">
         <v>122</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>123</v>
       </c>
       <c r="F7" s="67" t="s">
         <v>6</v>
@@ -8153,10 +8506,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="67" t="s">
         <v>124</v>
-      </c>
-      <c r="I7" s="67" t="s">
-        <v>125</v>
       </c>
       <c r="J7" s="67" t="s">
         <v>0</v>
@@ -8189,34 +8542,34 @@
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:18" s="66" customFormat="1" ht="16.5">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="197"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="198"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
     </row>
     <row r="11" spans="1:18" s="66" customFormat="1" ht="16.5">
       <c r="A11" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="C11" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="D11" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="E11" s="67" t="s">
         <v>122</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>123</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>6</v>
@@ -8225,10 +8578,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="67" t="s">
         <v>124</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>125</v>
       </c>
       <c r="J11" s="67" t="s">
         <v>0</v>
@@ -8245,23 +8598,23 @@
         <v>73</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="72" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="66" customFormat="1" ht="16.5">
@@ -8275,23 +8628,23 @@
         <v>74</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" s="87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="72" t="s">
         <v>65</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="66" customFormat="1" ht="16.5">
@@ -8305,23 +8658,23 @@
         <v>102</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="72" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="66" customFormat="1" ht="16.5">
@@ -8335,55 +8688,55 @@
         <v>75</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="69"/>
       <c r="I15" s="72" t="s">
         <v>65</v>
       </c>
       <c r="J15" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="66" customFormat="1" ht="16.5"/>
     <row r="17" spans="1:11" s="66" customFormat="1" ht="16.5">
-      <c r="A17" s="194" t="s">
+      <c r="A17" s="195" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="198"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="199"/>
     </row>
     <row r="18" spans="1:11" s="66" customFormat="1" ht="16.5">
       <c r="A18" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="C18" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="D18" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="E18" s="67" t="s">
         <v>122</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>123</v>
       </c>
       <c r="F18" s="67" t="s">
         <v>6</v>
@@ -8392,10 +8745,10 @@
         <v>2</v>
       </c>
       <c r="H18" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="67" t="s">
         <v>124</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>125</v>
       </c>
       <c r="J18" s="67" t="s">
         <v>0</v>
@@ -8413,20 +8766,20 @@
       </c>
       <c r="D19" s="70"/>
       <c r="E19" s="88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="72" t="s">
         <v>80</v>
       </c>
       <c r="J19" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="66" customFormat="1" ht="16.5">
@@ -8441,13 +8794,13 @@
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="92" t="s">
+      <c r="G20" s="92" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="92" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="72">
@@ -8493,20 +8846,20 @@
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="69"/>
       <c r="I22" s="72">
         <v>0</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8521,12 +8874,674 @@
       <c r="J23" s="26"/>
       <c r="K23" s="28"/>
     </row>
+    <row r="25" spans="1:11" ht="16.5">
+      <c r="A25" s="195" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5">
+      <c r="A26" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5">
+      <c r="A27" s="68">
+        <v>1</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="70"/>
+      <c r="I27" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5">
+      <c r="A28" s="68">
+        <v>2</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="70"/>
+      <c r="I28" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="J28" s="70"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5">
+      <c r="A29" s="68">
+        <v>3</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="70"/>
+      <c r="I29" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="J29" s="70"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5">
+      <c r="A30" s="68">
+        <v>4</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="70"/>
+      <c r="I30" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" s="70"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5">
+      <c r="A31" s="68">
+        <v>5</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="70"/>
+      <c r="I31" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="J31" s="70"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5">
+      <c r="A32" s="68">
+        <v>6</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="70"/>
+      <c r="I32" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="70"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5">
+      <c r="A33" s="68">
+        <v>7</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="70"/>
+      <c r="I33" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33" s="70"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5">
+      <c r="A36" s="195" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="196"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5">
+      <c r="A37" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16.5">
+      <c r="A38" s="72">
+        <v>1</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="69"/>
+      <c r="I38" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="J38" s="200"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5">
+      <c r="A39" s="68">
+        <v>2</v>
+      </c>
+      <c r="B39" s="201" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="202" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="203" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" s="70"/>
+      <c r="I39" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" s="200"/>
+    </row>
+    <row r="40" spans="1:10" ht="33">
+      <c r="A40" s="68">
+        <v>3</v>
+      </c>
+      <c r="B40" s="204" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="202"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="J40" s="200" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5">
+      <c r="A41" s="68"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="203"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="200"/>
+    </row>
+    <row r="42" spans="1:10" ht="16.5">
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+    </row>
+    <row r="43" spans="1:10" ht="16.5">
+      <c r="A43" s="195" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="196"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="197"/>
+    </row>
+    <row r="44" spans="1:10" ht="16.5">
+      <c r="A44" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="J44" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16.5">
+      <c r="A45" s="72">
+        <v>1</v>
+      </c>
+      <c r="B45" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="H45" s="69"/>
+      <c r="I45" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="J45" s="200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16.5">
+      <c r="A46" s="68">
+        <v>2</v>
+      </c>
+      <c r="B46" s="201" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="202" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="203" t="s">
+        <v>208</v>
+      </c>
+      <c r="G46" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="70"/>
+      <c r="I46" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="200" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="33">
+      <c r="A47" s="68">
+        <v>3</v>
+      </c>
+      <c r="B47" s="204" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="202"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" s="200" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5">
+      <c r="A48" s="68"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="202"/>
+      <c r="F48" s="203"/>
+      <c r="G48" s="205"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="200"/>
+    </row>
+    <row r="49" spans="1:10" ht="16.5">
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+    </row>
+    <row r="50" spans="1:10" ht="16.5">
+      <c r="A50" s="195" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="196"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="197"/>
+    </row>
+    <row r="51" spans="1:10" ht="16.5">
+      <c r="A51" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="J51" s="67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="16.5">
+      <c r="A52" s="72">
+        <v>1</v>
+      </c>
+      <c r="B52" s="204" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="87" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" s="69"/>
+      <c r="I52" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="J52" s="200"/>
+    </row>
+    <row r="53" spans="1:10" ht="16.5">
+      <c r="A53" s="68">
+        <v>2</v>
+      </c>
+      <c r="B53" s="204" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="202" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53" s="70"/>
+      <c r="I53" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" s="200"/>
+    </row>
+    <row r="54" spans="1:10" ht="33">
+      <c r="A54" s="68">
+        <v>3</v>
+      </c>
+      <c r="B54" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="202"/>
+      <c r="F54" s="205"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" s="200" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="16.5">
+      <c r="A55" s="68"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="202"/>
+      <c r="F55" s="203"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="200"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A50:J50"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
